--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2022_2023/Skill Corner/physical_bottom15.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2022_2023/Skill Corner/physical_bottom15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,202 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
     </row>
@@ -684,85 +679,82 @@
         <v>142.7628874818606</v>
       </c>
       <c r="O2" t="n">
-        <v>366.5555891730051</v>
+        <v>53687.50754337839</v>
       </c>
       <c r="P2" t="n">
-        <v>31904.45946075156</v>
+        <v>1789.583148955679</v>
       </c>
       <c r="Q2" t="n">
-        <v>1789.583148955679</v>
+        <v>8794.052539890872</v>
       </c>
       <c r="R2" t="n">
-        <v>4873.346650393889</v>
+        <v>3571.578814991709</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.430290618373</v>
+        <v>339.4882633671365</v>
       </c>
       <c r="T2" t="n">
-        <v>180.1261777306801</v>
+        <v>1133.573772988486</v>
       </c>
       <c r="U2" t="n">
-        <v>595.4962541125446</v>
+        <v>56.22910715652992</v>
       </c>
       <c r="V2" t="n">
-        <v>30.17613264593679</v>
+        <v>4705.148866245876</v>
       </c>
       <c r="W2" t="n">
-        <v>2440.926544730917</v>
+        <v>395.7217512147964</v>
       </c>
       <c r="X2" t="n">
-        <v>210.3023103766169</v>
+        <v>573.0932348232502</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.0639423648202</v>
+        <v>34.83355508442803</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.2804405418851</v>
+        <v>383.1833464266741</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.4833502104124</v>
+        <v>64.33767385213126</v>
       </c>
       <c r="AB2" t="n">
-        <v>34.19200640294181</v>
+        <v>57086.66678586456</v>
       </c>
       <c r="AC2" t="n">
-        <v>36135.57845671937</v>
+        <v>1902.889778045967</v>
       </c>
       <c r="AD2" t="n">
-        <v>1902.889778045967</v>
+        <v>10627.67997571375</v>
       </c>
       <c r="AE2" t="n">
-        <v>6409.576021571456</v>
+        <v>3800.980184563298</v>
       </c>
       <c r="AF2" t="n">
-        <v>2269.209859509363</v>
+        <v>368.0107034747766</v>
       </c>
       <c r="AG2" t="n">
-        <v>219.6421666017945</v>
+        <v>1015.866992454417</v>
       </c>
       <c r="AH2" t="n">
-        <v>595.9822832214353</v>
+        <v>51.95972193060611</v>
       </c>
       <c r="AI2" t="n">
-        <v>31.50875767765249</v>
+        <v>4816.847089271797</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2865.192142730798</v>
+        <v>419.9660189493553</v>
       </c>
       <c r="AK2" t="n">
-        <v>251.1509242794469</v>
+        <v>637.1234222542826</v>
       </c>
       <c r="AL2" t="n">
-        <v>399.979807643319</v>
+        <v>32.51213709911175</v>
       </c>
       <c r="AM2" t="n">
-        <v>20.39986431613515</v>
+        <v>443.1609229995105</v>
       </c>
       <c r="AN2" t="n">
-        <v>290.1272530926907</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>47.07696782808944</v>
+        <v>76.58246243520364</v>
       </c>
     </row>
     <row r="3">
@@ -809,85 +801,82 @@
         <v>162.5012707259853</v>
       </c>
       <c r="O3" t="n">
-        <v>377.6552883553357</v>
+        <v>54994.20449853751</v>
       </c>
       <c r="P3" t="n">
-        <v>32183.36211709361</v>
+        <v>1833.143910860038</v>
       </c>
       <c r="Q3" t="n">
-        <v>1833.143910860038</v>
+        <v>9129.787367605226</v>
       </c>
       <c r="R3" t="n">
-        <v>5046.321782971336</v>
+        <v>3810.264720527704</v>
       </c>
       <c r="S3" t="n">
-        <v>2055.639382865777</v>
+        <v>350.4428821375358</v>
       </c>
       <c r="T3" t="n">
-        <v>196.3633001708665</v>
+        <v>1372.879785130194</v>
       </c>
       <c r="U3" t="n">
-        <v>728.9988646379384</v>
+        <v>70.84037518106919</v>
       </c>
       <c r="V3" t="n">
-        <v>39.41647437794724</v>
+        <v>5183.140199197343</v>
       </c>
       <c r="W3" t="n">
-        <v>2784.638247503716</v>
+        <v>421.2858394578417</v>
       </c>
       <c r="X3" t="n">
-        <v>235.7797745488137</v>
+        <v>583.8415028486138</v>
       </c>
       <c r="Y3" t="n">
-        <v>335.0726623778715</v>
+        <v>34.09370346994178</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.51263999210498</v>
+        <v>392.5333262356082</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.7968414490904</v>
+        <v>62.35309332785005</v>
       </c>
       <c r="AB3" t="n">
-        <v>35.27276277734338</v>
+        <v>58787.82593011165</v>
       </c>
       <c r="AC3" t="n">
-        <v>39794.41633163993</v>
+        <v>1959.60010753966</v>
       </c>
       <c r="AD3" t="n">
-        <v>1959.60010753966</v>
+        <v>10938.42611508214</v>
       </c>
       <c r="AE3" t="n">
-        <v>7091.018135251088</v>
+        <v>4183.061654926878</v>
       </c>
       <c r="AF3" t="n">
-        <v>2650.273321637697</v>
+        <v>407.2931255688168</v>
       </c>
       <c r="AG3" t="n">
-        <v>260.0798629544852</v>
+        <v>1371.337878864017</v>
       </c>
       <c r="AH3" t="n">
-        <v>800.6870697587419</v>
+        <v>67.09770665755663</v>
       </c>
       <c r="AI3" t="n">
-        <v>42.063261518243</v>
+        <v>5554.393442435726</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3450.960391396439</v>
+        <v>474.3940497139374</v>
       </c>
       <c r="AK3" t="n">
-        <v>302.1431244727283</v>
+        <v>642.3284792600658</v>
       </c>
       <c r="AL3" t="n">
-        <v>443.042215607808</v>
+        <v>36.72113466827111</v>
       </c>
       <c r="AM3" t="n">
-        <v>22.76227642547741</v>
+        <v>463.4376344332381</v>
       </c>
       <c r="AN3" t="n">
-        <v>323.5660507475129</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>59.09340196123291</v>
+        <v>90.75425755841611</v>
       </c>
     </row>
     <row r="4">
@@ -934,85 +923,82 @@
         <v>150.0353837386426</v>
       </c>
       <c r="O4" t="n">
-        <v>370.5252472668514</v>
+        <v>54137.01044588317</v>
       </c>
       <c r="P4" t="n">
-        <v>33946.52801561404</v>
+        <v>1804.568397327109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1804.568397327109</v>
+        <v>8974.436430929289</v>
       </c>
       <c r="R4" t="n">
-        <v>5282.083917867491</v>
+        <v>3797.849521412252</v>
       </c>
       <c r="S4" t="n">
-        <v>2059.064592707812</v>
+        <v>357.0478537671564</v>
       </c>
       <c r="T4" t="n">
-        <v>195.4385394997454</v>
+        <v>1378.859752146454</v>
       </c>
       <c r="U4" t="n">
-        <v>697.3564103680096</v>
+        <v>66.23484973609349</v>
       </c>
       <c r="V4" t="n">
-        <v>35.05301543869323</v>
+        <v>5176.704651449913</v>
       </c>
       <c r="W4" t="n">
-        <v>2756.421003075821</v>
+        <v>423.2758110433819</v>
       </c>
       <c r="X4" t="n">
-        <v>230.4915549384387</v>
+        <v>562.9103488876818</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.8935769820786</v>
+        <v>33.21272895780444</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.29892320195615</v>
+        <v>385.29215275913</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.087070874332</v>
+        <v>60.3801140499456</v>
       </c>
       <c r="AB4" t="n">
-        <v>34.74506592053384</v>
+        <v>56725.08820216081</v>
       </c>
       <c r="AC4" t="n">
-        <v>36450.5265750414</v>
+        <v>1890.835971749631</v>
       </c>
       <c r="AD4" t="n">
-        <v>1890.835971749631</v>
+        <v>10619.18677532798</v>
       </c>
       <c r="AE4" t="n">
-        <v>6458.173930732449</v>
+        <v>4059.725877075676</v>
       </c>
       <c r="AF4" t="n">
-        <v>2416.52058293444</v>
+        <v>373.1389741306476</v>
       </c>
       <c r="AG4" t="n">
-        <v>224.5729037330775</v>
+        <v>1152.978280683715</v>
       </c>
       <c r="AH4" t="n">
-        <v>640.4351915714346</v>
+        <v>52.6325644061474</v>
       </c>
       <c r="AI4" t="n">
-        <v>32.44303357407257</v>
+        <v>5212.700493636029</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3056.955774505875</v>
+        <v>425.7690226063226</v>
       </c>
       <c r="AK4" t="n">
-        <v>257.01593730715</v>
+        <v>621.5711413538127</v>
       </c>
       <c r="AL4" t="n">
-        <v>396.1510174947809</v>
+        <v>31.29403483431498</v>
       </c>
       <c r="AM4" t="n">
-        <v>19.3770250845231</v>
+        <v>453.9198668206434</v>
       </c>
       <c r="AN4" t="n">
-        <v>295.7793601242389</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>47.97586694037265</v>
+        <v>81.36524765056656</v>
       </c>
     </row>
     <row r="5">
@@ -1059,85 +1045,82 @@
         <v>160.6960584800995</v>
       </c>
       <c r="O5" t="n">
-        <v>363.0029343410609</v>
+        <v>53699.27639814557</v>
       </c>
       <c r="P5" t="n">
-        <v>34023.16804189932</v>
+        <v>1789.97284787547</v>
       </c>
       <c r="Q5" t="n">
-        <v>1789.97284787547</v>
+        <v>8814.739356522445</v>
       </c>
       <c r="R5" t="n">
-        <v>5293.268267754257</v>
+        <v>3407.290750359693</v>
       </c>
       <c r="S5" t="n">
-        <v>2062.649343114682</v>
+        <v>325.1707749562979</v>
       </c>
       <c r="T5" t="n">
-        <v>197.9328268566935</v>
+        <v>1238.382176406653</v>
       </c>
       <c r="U5" t="n">
-        <v>712.344887526617</v>
+        <v>58.87597686809251</v>
       </c>
       <c r="V5" t="n">
-        <v>35.84404793113761</v>
+        <v>4645.67396153448</v>
       </c>
       <c r="W5" t="n">
-        <v>2774.9942306413</v>
+        <v>384.0561289414283</v>
       </c>
       <c r="X5" t="n">
-        <v>233.7768747878311</v>
+        <v>563.4652175035121</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.9974268335818</v>
+        <v>35.71957618615966</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.94699318138223</v>
+        <v>401.9116548095158</v>
       </c>
       <c r="AA5" t="n">
-        <v>253.3956777112338</v>
+        <v>66.16132757241857</v>
       </c>
       <c r="AB5" t="n">
-        <v>41.52307333848682</v>
+        <v>55963.6928761646</v>
       </c>
       <c r="AC5" t="n">
-        <v>36046.67210619323</v>
+        <v>1865.454305147007</v>
       </c>
       <c r="AD5" t="n">
-        <v>1865.454305147007</v>
+        <v>10145.20874073018</v>
       </c>
       <c r="AE5" t="n">
-        <v>6385.168962592865</v>
+        <v>3986.464328964787</v>
       </c>
       <c r="AF5" t="n">
-        <v>2490.601287225238</v>
+        <v>381.7757193675264</v>
       </c>
       <c r="AG5" t="n">
-        <v>238.4333089014052</v>
+        <v>1205.463933075388</v>
       </c>
       <c r="AH5" t="n">
-        <v>743.2185662855194</v>
+        <v>60.51719085273837</v>
       </c>
       <c r="AI5" t="n">
-        <v>37.58112654073653</v>
+        <v>5191.929328912455</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3233.819853510757</v>
+        <v>442.3050528445291</v>
       </c>
       <c r="AK5" t="n">
-        <v>276.0144354421417</v>
+        <v>633.4628917361022</v>
       </c>
       <c r="AL5" t="n">
-        <v>403.722458707285</v>
+        <v>32.54875032681627</v>
       </c>
       <c r="AM5" t="n">
-        <v>20.33032314198527</v>
+        <v>443.6554472915653</v>
       </c>
       <c r="AN5" t="n">
-        <v>291.2819371798493</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>53.43583402741236</v>
+        <v>89.37632986017604</v>
       </c>
     </row>
     <row r="6">
@@ -1184,85 +1167,82 @@
         <v>157.2881518896325</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6952538118247</v>
+        <v>54562.78896782484</v>
       </c>
       <c r="P6" t="n">
-        <v>32981.03447720075</v>
+        <v>1818.763334609173</v>
       </c>
       <c r="Q6" t="n">
-        <v>1818.763334609173</v>
+        <v>9167.532815064775</v>
       </c>
       <c r="R6" t="n">
-        <v>5207.637300495745</v>
+        <v>3723.128582211055</v>
       </c>
       <c r="S6" t="n">
-        <v>2017.410030104667</v>
+        <v>346.3376013952695</v>
       </c>
       <c r="T6" t="n">
-        <v>189.4881492574952</v>
+        <v>1257.009845355997</v>
       </c>
       <c r="U6" t="n">
-        <v>652.0100034293132</v>
+        <v>67.9110119670769</v>
       </c>
       <c r="V6" t="n">
-        <v>35.50754867797408</v>
+        <v>4980.141704822324</v>
       </c>
       <c r="W6" t="n">
-        <v>2669.42003353398</v>
+        <v>414.2543358557317</v>
       </c>
       <c r="X6" t="n">
-        <v>224.9956979354693</v>
+        <v>552.0314919767005</v>
       </c>
       <c r="Y6" t="n">
-        <v>323.5976268507029</v>
+        <v>31.69578916560692</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.67984869912071</v>
+        <v>369.6063106349939</v>
       </c>
       <c r="AA6" t="n">
-        <v>224.3396480739952</v>
+        <v>64.01227402471065</v>
       </c>
       <c r="AB6" t="n">
-        <v>36.68232803648355</v>
+        <v>58090.96565395877</v>
       </c>
       <c r="AC6" t="n">
-        <v>38215.38907581136</v>
+        <v>1936.367568756537</v>
       </c>
       <c r="AD6" t="n">
-        <v>1936.367568756537</v>
+        <v>11042.62852753549</v>
       </c>
       <c r="AE6" t="n">
-        <v>6950.273976492641</v>
+        <v>4172.156395992405</v>
       </c>
       <c r="AF6" t="n">
-        <v>2550.060739703559</v>
+        <v>384.4895868092252</v>
       </c>
       <c r="AG6" t="n">
-        <v>242.5893395893727</v>
+        <v>1033.754318183795</v>
       </c>
       <c r="AH6" t="n">
-        <v>634.0704729004435</v>
+        <v>53.54154297886509</v>
       </c>
       <c r="AI6" t="n">
-        <v>34.10466486536048</v>
+        <v>5205.906401493848</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3184.131212604002</v>
+        <v>438.03745042385</v>
       </c>
       <c r="AK6" t="n">
-        <v>276.6940044547333</v>
+        <v>635.0300787581265</v>
       </c>
       <c r="AL6" t="n">
-        <v>420.141206221553</v>
+        <v>33.08669976046014</v>
       </c>
       <c r="AM6" t="n">
-        <v>19.97545110652459</v>
+        <v>465.2854839848809</v>
       </c>
       <c r="AN6" t="n">
-        <v>309.2604382299455</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>50.24093946692304</v>
+        <v>79.95221387565422</v>
       </c>
     </row>
     <row r="7">
@@ -1309,85 +1289,82 @@
         <v>161.9861009449031</v>
       </c>
       <c r="O7" t="n">
-        <v>376.8092762233429</v>
+        <v>54605.73472865504</v>
       </c>
       <c r="P7" t="n">
-        <v>33482.46279152756</v>
+        <v>1820.189995343991</v>
       </c>
       <c r="Q7" t="n">
-        <v>1820.189995343991</v>
+        <v>8792.038077684983</v>
       </c>
       <c r="R7" t="n">
-        <v>5210.982864036019</v>
+        <v>3699.318945366564</v>
       </c>
       <c r="S7" t="n">
-        <v>2038.693319467882</v>
+        <v>360.9041723093743</v>
       </c>
       <c r="T7" t="n">
-        <v>202.7356094366338</v>
+        <v>1421.672441236095</v>
       </c>
       <c r="U7" t="n">
-        <v>742.6187844309227</v>
+        <v>67.05741507316849</v>
       </c>
       <c r="V7" t="n">
-        <v>38.2769757077011</v>
+        <v>5121.001203710677</v>
       </c>
       <c r="W7" t="n">
-        <v>2781.312103898805</v>
+        <v>427.9606987698404</v>
       </c>
       <c r="X7" t="n">
-        <v>241.012585144335</v>
+        <v>587.796029078942</v>
       </c>
       <c r="Y7" t="n">
-        <v>347.2979378129156</v>
+        <v>39.18304653231709</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.92729151564232</v>
+        <v>389.7014840921692</v>
       </c>
       <c r="AA7" t="n">
-        <v>245.0711760022133</v>
+        <v>63.81230104762788</v>
       </c>
       <c r="AB7" t="n">
-        <v>35.75235765422989</v>
+        <v>59079.80989095588</v>
       </c>
       <c r="AC7" t="n">
-        <v>39223.0374839481</v>
+        <v>1969.33128820116</v>
       </c>
       <c r="AD7" t="n">
-        <v>1969.33128820116</v>
+        <v>10924.40116414886</v>
       </c>
       <c r="AE7" t="n">
-        <v>7064.495679757166</v>
+        <v>4221.317892957681</v>
       </c>
       <c r="AF7" t="n">
-        <v>2679.814743986433</v>
+        <v>408.4237650127398</v>
       </c>
       <c r="AG7" t="n">
-        <v>261.781938653786</v>
+        <v>1183.149661531928</v>
       </c>
       <c r="AH7" t="n">
-        <v>726.5242040774749</v>
+        <v>68.98588997104174</v>
       </c>
       <c r="AI7" t="n">
-        <v>43.14939297691053</v>
+        <v>5404.477290329512</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3406.338948063907</v>
+        <v>477.4118473116962</v>
       </c>
       <c r="AK7" t="n">
-        <v>304.9313316306965</v>
+        <v>663.749876304197</v>
       </c>
       <c r="AL7" t="n">
-        <v>444.7588955000905</v>
+        <v>38.33063557151117</v>
       </c>
       <c r="AM7" t="n">
-        <v>22.91309107398749</v>
+        <v>484.6617976734966</v>
       </c>
       <c r="AN7" t="n">
-        <v>326.0452392154011</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>56.1481684979863</v>
+        <v>91.61765357372487</v>
       </c>
     </row>
     <row r="8">
@@ -1434,85 +1411,82 @@
         <v>151.7662883106005</v>
       </c>
       <c r="O8" t="n">
-        <v>374.4334533976204</v>
+        <v>55803.34787133539</v>
       </c>
       <c r="P8" t="n">
-        <v>33236.12760458119</v>
+        <v>1860.111216911395</v>
       </c>
       <c r="Q8" t="n">
-        <v>1860.111216911395</v>
+        <v>9333.607005272243</v>
       </c>
       <c r="R8" t="n">
-        <v>5256.382756162755</v>
+        <v>3865.511127920233</v>
       </c>
       <c r="S8" t="n">
-        <v>2106.597439535786</v>
+        <v>357.6590490664527</v>
       </c>
       <c r="T8" t="n">
-        <v>198.9370480404991</v>
+        <v>1363.83238795592</v>
       </c>
       <c r="U8" t="n">
-        <v>683.4581811148424</v>
+        <v>66.42837538374582</v>
       </c>
       <c r="V8" t="n">
-        <v>36.16774958899423</v>
+        <v>5229.3467683441</v>
       </c>
       <c r="W8" t="n">
-        <v>2790.055620650628</v>
+        <v>424.0840522374075</v>
       </c>
       <c r="X8" t="n">
-        <v>235.1047976294933</v>
+        <v>577.0844528746582</v>
       </c>
       <c r="Y8" t="n">
-        <v>336.798120413775</v>
+        <v>37.31451453315587</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.54093413286208</v>
+        <v>389.617234660578</v>
       </c>
       <c r="AA8" t="n">
-        <v>233.2422431812943</v>
+        <v>71.63396981237447</v>
       </c>
       <c r="AB8" t="n">
-        <v>38.6757384044976</v>
+        <v>58646.06938647039</v>
       </c>
       <c r="AC8" t="n">
-        <v>35980.89131026963</v>
+        <v>1954.867156910036</v>
       </c>
       <c r="AD8" t="n">
-        <v>1954.867156910036</v>
+        <v>11375.74994923443</v>
       </c>
       <c r="AE8" t="n">
-        <v>6768.413632748459</v>
+        <v>4400.142045423278</v>
       </c>
       <c r="AF8" t="n">
-        <v>2607.857859622884</v>
+        <v>398.3273528848979</v>
       </c>
       <c r="AG8" t="n">
-        <v>243.5385845851865</v>
+        <v>1276.397622162863</v>
       </c>
       <c r="AH8" t="n">
-        <v>782.793547035446</v>
+        <v>65.0673323271096</v>
       </c>
       <c r="AI8" t="n">
-        <v>40.22623309548145</v>
+        <v>5676.542435335657</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3390.65140665833</v>
+        <v>463.3925441029406</v>
       </c>
       <c r="AK8" t="n">
-        <v>283.7648176806679</v>
+        <v>634.8509827537249</v>
       </c>
       <c r="AL8" t="n">
-        <v>398.0677104508879</v>
+        <v>31.91534043021115</v>
       </c>
       <c r="AM8" t="n">
-        <v>19.45788245663188</v>
+        <v>437.9785180269877</v>
       </c>
       <c r="AN8" t="n">
-        <v>282.3899870609546</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>47.05329238893865</v>
+        <v>77.3207842420364</v>
       </c>
     </row>
     <row r="9">
@@ -1559,85 +1533,82 @@
         <v>151.4290394415686</v>
       </c>
       <c r="O9" t="n">
-        <v>367.6466207958169</v>
+        <v>54599.33455401766</v>
       </c>
       <c r="P9" t="n">
-        <v>34313.17653085962</v>
+        <v>1819.979132913848</v>
       </c>
       <c r="Q9" t="n">
-        <v>1819.979132913848</v>
+        <v>8966.718593650774</v>
       </c>
       <c r="R9" t="n">
-        <v>5429.918384147818</v>
+        <v>3829.455331856123</v>
       </c>
       <c r="S9" t="n">
-        <v>2157.288558157233</v>
+        <v>349.6271779016139</v>
       </c>
       <c r="T9" t="n">
-        <v>200.279386442245</v>
+        <v>1376.077442945881</v>
       </c>
       <c r="U9" t="n">
-        <v>751.3455783243123</v>
+        <v>63.9674384002193</v>
       </c>
       <c r="V9" t="n">
-        <v>35.93888893677415</v>
+        <v>5205.538811740388</v>
       </c>
       <c r="W9" t="n">
-        <v>2908.634136481546</v>
+        <v>413.5900004330727</v>
       </c>
       <c r="X9" t="n">
-        <v>236.2182753790191</v>
+        <v>563.4992023067452</v>
       </c>
       <c r="Y9" t="n">
-        <v>347.5645945989895</v>
+        <v>31.88476431844441</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.60661397377899</v>
+        <v>390.0885557320632</v>
       </c>
       <c r="AA9" t="n">
-        <v>248.4363181453687</v>
+        <v>65.5317604180201</v>
       </c>
       <c r="AB9" t="n">
-        <v>36.97404309133073</v>
+        <v>59389.39285872791</v>
       </c>
       <c r="AC9" t="n">
-        <v>37066.83995680338</v>
+        <v>1979.643352884405</v>
       </c>
       <c r="AD9" t="n">
-        <v>1979.643352884405</v>
+        <v>11400.26331788944</v>
       </c>
       <c r="AE9" t="n">
-        <v>6906.146034374616</v>
+        <v>4453.804365321249</v>
       </c>
       <c r="AF9" t="n">
-        <v>2597.606381331173</v>
+        <v>408.6446786399284</v>
       </c>
       <c r="AG9" t="n">
-        <v>243.9045739191207</v>
+        <v>1259.291251037464</v>
       </c>
       <c r="AH9" t="n">
-        <v>742.5095846708698</v>
+        <v>57.59853489416042</v>
       </c>
       <c r="AI9" t="n">
-        <v>36.57923577775708</v>
+        <v>5713.088205306477</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3340.115966002043</v>
+        <v>466.2445961647918</v>
       </c>
       <c r="AK9" t="n">
-        <v>280.4838096968778</v>
+        <v>643.5269281758831</v>
       </c>
       <c r="AL9" t="n">
-        <v>410.6229816365511</v>
+        <v>31.91557912576609</v>
       </c>
       <c r="AM9" t="n">
-        <v>19.39137961685502</v>
+        <v>457.1732355791509</v>
       </c>
       <c r="AN9" t="n">
-        <v>294.8956017733092</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>48.68746892754546</v>
+        <v>83.39189415151398</v>
       </c>
     </row>
     <row r="10">
@@ -1684,85 +1655,82 @@
         <v>153.6494460216648</v>
       </c>
       <c r="O10" t="n">
-        <v>360.3161598198278</v>
+        <v>53750.6273999517</v>
       </c>
       <c r="P10" t="n">
-        <v>33830.84252511391</v>
+        <v>1791.684348787192</v>
       </c>
       <c r="Q10" t="n">
-        <v>1791.684348787192</v>
+        <v>8862.513458265927</v>
       </c>
       <c r="R10" t="n">
-        <v>5346.021674747858</v>
+        <v>3468.942759791285</v>
       </c>
       <c r="S10" t="n">
-        <v>1986.088718385625</v>
+        <v>319.8393327715966</v>
       </c>
       <c r="T10" t="n">
-        <v>187.1479971370098</v>
+        <v>1158.062552802053</v>
       </c>
       <c r="U10" t="n">
-        <v>639.8612718884641</v>
+        <v>53.78721993654938</v>
       </c>
       <c r="V10" t="n">
-        <v>31.6828268382044</v>
+        <v>4627.006811095887</v>
       </c>
       <c r="W10" t="n">
-        <v>2625.949990274089</v>
+        <v>373.6354660753095</v>
       </c>
       <c r="X10" t="n">
-        <v>218.8308239752142</v>
+        <v>580.2823715054527</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.6343898172992</v>
+        <v>37.64841172545438</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.95160988896315</v>
+        <v>400.412509140552</v>
       </c>
       <c r="AA10" t="n">
-        <v>253.5372213113492</v>
+        <v>61.13955607190731</v>
       </c>
       <c r="AB10" t="n">
-        <v>36.11977461716539</v>
+        <v>57217.44733663396</v>
       </c>
       <c r="AC10" t="n">
-        <v>38734.14110751532</v>
+        <v>1907.245330211212</v>
       </c>
       <c r="AD10" t="n">
-        <v>1907.245330211212</v>
+        <v>10948.47415113574</v>
       </c>
       <c r="AE10" t="n">
-        <v>7298.948095575467</v>
+        <v>4076.696360543907</v>
       </c>
       <c r="AF10" t="n">
-        <v>2733.850812495548</v>
+        <v>371.9657796672883</v>
       </c>
       <c r="AG10" t="n">
-        <v>251.7350720822539</v>
+        <v>976.0501750172103</v>
       </c>
       <c r="AH10" t="n">
-        <v>662.6231874889648</v>
+        <v>46.29756509321961</v>
       </c>
       <c r="AI10" t="n">
-        <v>33.12679758224932</v>
+        <v>5052.74151238331</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3396.473999984513</v>
+        <v>418.2584158723861</v>
       </c>
       <c r="AK10" t="n">
-        <v>284.8618696645032</v>
+        <v>651.8452739144167</v>
       </c>
       <c r="AL10" t="n">
-        <v>446.9856376882492</v>
+        <v>29.08683374257386</v>
       </c>
       <c r="AM10" t="n">
-        <v>19.96397434371254</v>
+        <v>480.7944070688594</v>
       </c>
       <c r="AN10" t="n">
-        <v>328.6547137150765</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>54.26821165641253</v>
+        <v>81.76822772955047</v>
       </c>
     </row>
     <row r="11">
@@ -1809,85 +1777,82 @@
         <v>158.1148211610618</v>
       </c>
       <c r="O11" t="n">
-        <v>373.0374650650146</v>
+        <v>54003.30728635915</v>
       </c>
       <c r="P11" t="n">
-        <v>35066.024569681</v>
+        <v>1800.113018351548</v>
       </c>
       <c r="Q11" t="n">
-        <v>1800.113018351548</v>
+        <v>9089.593071851928</v>
       </c>
       <c r="R11" t="n">
-        <v>5642.215935629576</v>
+        <v>3640.113167693249</v>
       </c>
       <c r="S11" t="n">
-        <v>2112.110861428766</v>
+        <v>328.099569902289</v>
       </c>
       <c r="T11" t="n">
-        <v>199.7835856455806</v>
+        <v>1208.396154518199</v>
       </c>
       <c r="U11" t="n">
-        <v>709.0988370337348</v>
+        <v>57.80627435433269</v>
       </c>
       <c r="V11" t="n">
-        <v>35.98072175426246</v>
+        <v>4848.509299763505</v>
       </c>
       <c r="W11" t="n">
-        <v>2821.2096984625</v>
+        <v>385.9108703358363</v>
       </c>
       <c r="X11" t="n">
-        <v>235.7643073998431</v>
+        <v>570.0202229860558</v>
       </c>
       <c r="Y11" t="n">
-        <v>360.0022298010541</v>
+        <v>30.0464936406487</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.07100030537446</v>
+        <v>393.8459110903462</v>
       </c>
       <c r="AA11" t="n">
-        <v>256.6231662099686</v>
+        <v>62.23478207007964</v>
       </c>
       <c r="AB11" t="n">
-        <v>38.23493062461234</v>
+        <v>56094.90662332391</v>
       </c>
       <c r="AC11" t="n">
-        <v>38234.40943861828</v>
+        <v>1869.832947845043</v>
       </c>
       <c r="AD11" t="n">
-        <v>1869.832947845043</v>
+        <v>10569.41876337078</v>
       </c>
       <c r="AE11" t="n">
-        <v>6920.119692381159</v>
+        <v>4048.377927368884</v>
       </c>
       <c r="AF11" t="n">
-        <v>2553.534069397437</v>
+        <v>366.2539330700544</v>
       </c>
       <c r="AG11" t="n">
-        <v>236.0158135651494</v>
+        <v>1053.971641543847</v>
       </c>
       <c r="AH11" t="n">
-        <v>678.8626439190112</v>
+        <v>53.14486624470213</v>
       </c>
       <c r="AI11" t="n">
-        <v>34.64071372679756</v>
+        <v>5102.355342148013</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3232.396713316448</v>
+        <v>419.3981038710742</v>
       </c>
       <c r="AK11" t="n">
-        <v>270.6565272919469</v>
+        <v>619.9440351181554</v>
       </c>
       <c r="AL11" t="n">
-        <v>424.7011442474264</v>
+        <v>27.50626514762943</v>
       </c>
       <c r="AM11" t="n">
-        <v>18.05950373949625</v>
+        <v>456.4144549651424</v>
       </c>
       <c r="AN11" t="n">
-        <v>320.7154793333927</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>53.089474041543</v>
+        <v>83.0750970137683</v>
       </c>
     </row>
     <row r="12">
@@ -1934,85 +1899,82 @@
         <v>158.7819832940945</v>
       </c>
       <c r="O12" t="n">
-        <v>382.4930277995224</v>
+        <v>56559.63348637088</v>
       </c>
       <c r="P12" t="n">
-        <v>36086.02157856196</v>
+        <v>1885.319191466582</v>
       </c>
       <c r="Q12" t="n">
-        <v>1885.319191466582</v>
+        <v>9597.907032421486</v>
       </c>
       <c r="R12" t="n">
-        <v>5735.342107265517</v>
+        <v>3912.420458412199</v>
       </c>
       <c r="S12" t="n">
-        <v>2228.117841948711</v>
+        <v>369.3240853195792</v>
       </c>
       <c r="T12" t="n">
-        <v>214.3732148467328</v>
+        <v>1368.285034725303</v>
       </c>
       <c r="U12" t="n">
-        <v>746.8667135915367</v>
+        <v>70.64972437163487</v>
       </c>
       <c r="V12" t="n">
-        <v>39.21762410893082</v>
+        <v>5280.70865627372</v>
       </c>
       <c r="W12" t="n">
-        <v>2974.984555540248</v>
+        <v>439.9793116321557</v>
       </c>
       <c r="X12" t="n">
-        <v>253.5908389556637</v>
+        <v>607.2100071780112</v>
       </c>
       <c r="Y12" t="n">
-        <v>379.8655972275593</v>
+        <v>37.96352340840977</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.37020983977423</v>
+        <v>414.6815678515303</v>
       </c>
       <c r="AA12" t="n">
-        <v>268.3867813977944</v>
+        <v>65.87217701517002</v>
       </c>
       <c r="AB12" t="n">
-        <v>38.63144622340658</v>
+        <v>60476.36748336109</v>
       </c>
       <c r="AC12" t="n">
-        <v>38551.35978015437</v>
+        <v>2015.878846442265</v>
       </c>
       <c r="AD12" t="n">
-        <v>2015.878846442265</v>
+        <v>11943.93003735459</v>
       </c>
       <c r="AE12" t="n">
-        <v>7385.318539268617</v>
+        <v>4494.100987157306</v>
       </c>
       <c r="AF12" t="n">
-        <v>2736.680628444776</v>
+        <v>423.2055667040775</v>
       </c>
       <c r="AG12" t="n">
-        <v>259.4979086834658</v>
+        <v>1242.313075030241</v>
       </c>
       <c r="AH12" t="n">
-        <v>747.9017542241576</v>
+        <v>62.15513786206071</v>
       </c>
       <c r="AI12" t="n">
-        <v>38.78972958375759</v>
+        <v>5736.420243317546</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3484.582382668934</v>
+        <v>485.358838746329</v>
       </c>
       <c r="AK12" t="n">
-        <v>298.2876382672235</v>
+        <v>679.5822687483309</v>
       </c>
       <c r="AL12" t="n">
-        <v>445.6612566778085</v>
+        <v>35.339770770954</v>
       </c>
       <c r="AM12" t="n">
-        <v>20.66852382716593</v>
+        <v>497.9440092921034</v>
       </c>
       <c r="AN12" t="n">
-        <v>328.8435090411512</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>54.00211717900006</v>
+        <v>87.25808302652537</v>
       </c>
     </row>
     <row r="13">
@@ -2059,85 +2021,82 @@
         <v>149.1267140388624</v>
       </c>
       <c r="O13" t="n">
-        <v>375.4154333180647</v>
+        <v>55142.07578617423</v>
       </c>
       <c r="P13" t="n">
-        <v>35455.48195747091</v>
+        <v>1838.069399952778</v>
       </c>
       <c r="Q13" t="n">
-        <v>1838.069399952778</v>
+        <v>9175.996759853222</v>
       </c>
       <c r="R13" t="n">
-        <v>5607.381160560995</v>
+        <v>3824.091506847611</v>
       </c>
       <c r="S13" t="n">
-        <v>2186.039564042222</v>
+        <v>370.3416639445372</v>
       </c>
       <c r="T13" t="n">
-        <v>211.4122470088937</v>
+        <v>1621.403989099243</v>
       </c>
       <c r="U13" t="n">
-        <v>790.8551730954532</v>
+        <v>72.48373042315542</v>
       </c>
       <c r="V13" t="n">
-        <v>39.65162718661152</v>
+        <v>5445.505470044852</v>
       </c>
       <c r="W13" t="n">
-        <v>2976.894737137675</v>
+        <v>442.8238972817904</v>
       </c>
       <c r="X13" t="n">
-        <v>251.0638741955052</v>
+        <v>559.7911730469223</v>
       </c>
       <c r="Y13" t="n">
-        <v>353.9321666165247</v>
+        <v>32.498743089988</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.3955326268638</v>
+        <v>392.3404181821539</v>
       </c>
       <c r="AA13" t="n">
-        <v>253.1703170415058</v>
+        <v>59.52736535693941</v>
       </c>
       <c r="AB13" t="n">
-        <v>37.1794292463175</v>
+        <v>58347.39306368222</v>
       </c>
       <c r="AC13" t="n">
-        <v>38527.51299396675</v>
+        <v>1944.913980019637</v>
       </c>
       <c r="AD13" t="n">
-        <v>1944.913980019637</v>
+        <v>10663.35886518299</v>
       </c>
       <c r="AE13" t="n">
-        <v>6850.889447811384</v>
+        <v>4191.828168931881</v>
       </c>
       <c r="AF13" t="n">
-        <v>2569.758262190284</v>
+        <v>391.6234190224204</v>
       </c>
       <c r="AG13" t="n">
-        <v>243.1171804139845</v>
+        <v>1337.765151808551</v>
       </c>
       <c r="AH13" t="n">
-        <v>760.4538511805621</v>
+        <v>63.86777129268739</v>
       </c>
       <c r="AI13" t="n">
-        <v>38.56827050993297</v>
+        <v>5529.588312454981</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3330.212113370846</v>
+        <v>455.4920080732336</v>
       </c>
       <c r="AK13" t="n">
-        <v>281.6854509239175</v>
+        <v>619.0794557305384</v>
       </c>
       <c r="AL13" t="n">
-        <v>409.6898187522515</v>
+        <v>29.85034700159364</v>
       </c>
       <c r="AM13" t="n">
-        <v>18.47001470640117</v>
+        <v>457.7395733884847</v>
       </c>
       <c r="AN13" t="n">
-        <v>308.803498300902</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>47.38713601261635</v>
+        <v>75.5330707976424</v>
       </c>
     </row>
     <row r="14">
@@ -2184,85 +2143,82 @@
         <v>156.9998002917051</v>
       </c>
       <c r="O14" t="n">
-        <v>373.7221738366733</v>
+        <v>53366.24773727517</v>
       </c>
       <c r="P14" t="n">
-        <v>34589.73006494868</v>
+        <v>1778.874138179357</v>
       </c>
       <c r="Q14" t="n">
-        <v>1778.874138179357</v>
+        <v>8754.613825542863</v>
       </c>
       <c r="R14" t="n">
-        <v>5391.559146310789</v>
+        <v>3538.315911143588</v>
       </c>
       <c r="S14" t="n">
-        <v>2047.944553569228</v>
+        <v>337.9941041495515</v>
       </c>
       <c r="T14" t="n">
-        <v>196.9539300947276</v>
+        <v>1272.54346118749</v>
       </c>
       <c r="U14" t="n">
-        <v>681.0948061868274</v>
+        <v>66.30587212830464</v>
       </c>
       <c r="V14" t="n">
-        <v>36.67743805915725</v>
+        <v>4810.854762839654</v>
       </c>
       <c r="W14" t="n">
-        <v>2729.039359756055</v>
+        <v>404.2987249687219</v>
       </c>
       <c r="X14" t="n">
-        <v>233.6313681538849</v>
+        <v>560.408474478858</v>
       </c>
       <c r="Y14" t="n">
-        <v>357.2332129827694</v>
+        <v>36.27294257910135</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.57101121819398</v>
+        <v>382.3152095899698</v>
       </c>
       <c r="AA14" t="n">
-        <v>251.0128858451745</v>
+        <v>64.81900225132878</v>
       </c>
       <c r="AB14" t="n">
-        <v>38.59806736828643</v>
+        <v>57565.7798324573</v>
       </c>
       <c r="AC14" t="n">
-        <v>37779.25664009785</v>
+        <v>1918.86104356796</v>
       </c>
       <c r="AD14" t="n">
-        <v>1918.86104356796</v>
+        <v>10943.78417589497</v>
       </c>
       <c r="AE14" t="n">
-        <v>6966.965955696859</v>
+        <v>4209.24642030934</v>
       </c>
       <c r="AF14" t="n">
-        <v>2524.097409613759</v>
+        <v>388.0328528696249</v>
       </c>
       <c r="AG14" t="n">
-        <v>241.6943101107636</v>
+        <v>1070.186262973038</v>
       </c>
       <c r="AH14" t="n">
-        <v>671.127397144592</v>
+        <v>56.2067608406151</v>
       </c>
       <c r="AI14" t="n">
-        <v>35.84321883360374</v>
+        <v>5279.437679104981</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3195.224806758351</v>
+        <v>444.2352176578924</v>
       </c>
       <c r="AK14" t="n">
-        <v>277.5375289443673</v>
+        <v>623.9894203458967</v>
       </c>
       <c r="AL14" t="n">
-        <v>417.7813656405036</v>
+        <v>35.23554166518803</v>
       </c>
       <c r="AM14" t="n">
-        <v>20.37874423462964</v>
+        <v>451.6529398437106</v>
       </c>
       <c r="AN14" t="n">
-        <v>307.7046754875884</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>52.42201302465784</v>
+        <v>81.96563028454764</v>
       </c>
     </row>
     <row r="15">
@@ -2309,85 +2265,82 @@
         <v>161.3854683199482</v>
       </c>
       <c r="O15" t="n">
-        <v>364.3394320445296</v>
+        <v>52345.15863546391</v>
       </c>
       <c r="P15" t="n">
-        <v>34289.43260376357</v>
+        <v>1744.833792173473</v>
       </c>
       <c r="Q15" t="n">
-        <v>1744.833792173473</v>
+        <v>8753.346161414289</v>
       </c>
       <c r="R15" t="n">
-        <v>5581.60511173661</v>
+        <v>3557.095454808751</v>
       </c>
       <c r="S15" t="n">
-        <v>2174.363798978711</v>
+        <v>330.6357644884059</v>
       </c>
       <c r="T15" t="n">
-        <v>205.1621945348849</v>
+        <v>1200.238008605628</v>
       </c>
       <c r="U15" t="n">
-        <v>717.2838796899082</v>
+        <v>61.69035886334706</v>
       </c>
       <c r="V15" t="n">
-        <v>37.06432235010714</v>
+        <v>4757.336590892967</v>
       </c>
       <c r="W15" t="n">
-        <v>2891.647678668619</v>
+        <v>392.3230752745497</v>
       </c>
       <c r="X15" t="n">
-        <v>242.2265168849921</v>
+        <v>560.9150002121808</v>
       </c>
       <c r="Y15" t="n">
-        <v>363.4494388806525</v>
+        <v>34.5028287565523</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.22821120319724</v>
+        <v>378.4144070392149</v>
       </c>
       <c r="AA15" t="n">
-        <v>252.7502324898325</v>
+        <v>61.09620070549101</v>
       </c>
       <c r="AB15" t="n">
-        <v>38.67418884594141</v>
+        <v>56872.13613863363</v>
       </c>
       <c r="AC15" t="n">
-        <v>38837.2342649107</v>
+        <v>1895.740615838719</v>
       </c>
       <c r="AD15" t="n">
-        <v>1895.740615838719</v>
+        <v>10920.60466283679</v>
       </c>
       <c r="AE15" t="n">
-        <v>7255.300299474687</v>
+        <v>4308.662044797426</v>
       </c>
       <c r="AF15" t="n">
-        <v>2685.317443439502</v>
+        <v>400.8232723591278</v>
       </c>
       <c r="AG15" t="n">
-        <v>251.9577716615662</v>
+        <v>1133.889436835589</v>
       </c>
       <c r="AH15" t="n">
-        <v>685.8884465907436</v>
+        <v>56.11004624327686</v>
       </c>
       <c r="AI15" t="n">
-        <v>34.60782476726574</v>
+        <v>5442.547826667378</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3371.205890030245</v>
+        <v>456.930825087449</v>
       </c>
       <c r="AK15" t="n">
-        <v>286.565596428832</v>
+        <v>648.6114291518992</v>
       </c>
       <c r="AL15" t="n">
-        <v>444.3452410190699</v>
+        <v>33.03713590499436</v>
       </c>
       <c r="AM15" t="n">
-        <v>21.91597171755402</v>
+        <v>478.409504016454</v>
       </c>
       <c r="AN15" t="n">
-        <v>334.0462586306341</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>51.60070741083769</v>
+        <v>78.05919199918004</v>
       </c>
     </row>
     <row r="16">
@@ -2434,85 +2387,82 @@
         <v>150.6480748832984</v>
       </c>
       <c r="O16" t="n">
-        <v>368.8114392710189</v>
+        <v>53580.14785486589</v>
       </c>
       <c r="P16" t="n">
-        <v>33006.8121902348</v>
+        <v>1786.003441378219</v>
       </c>
       <c r="Q16" t="n">
-        <v>1786.003441378219</v>
+        <v>9117.28853084277</v>
       </c>
       <c r="R16" t="n">
-        <v>5401.973207012944</v>
+        <v>3752.87613207047</v>
       </c>
       <c r="S16" t="n">
-        <v>2110.674084358459</v>
+        <v>348.7326974789212</v>
       </c>
       <c r="T16" t="n">
-        <v>199.7791479476573</v>
+        <v>1495.114525407532</v>
       </c>
       <c r="U16" t="n">
-        <v>775.2281689191191</v>
+        <v>66.45550306714752</v>
       </c>
       <c r="V16" t="n">
-        <v>38.3454768363037</v>
+        <v>5247.992012418672</v>
       </c>
       <c r="W16" t="n">
-        <v>2885.902253277578</v>
+        <v>415.1869193407821</v>
       </c>
       <c r="X16" t="n">
-        <v>238.124624783961</v>
+        <v>560.2667517174301</v>
       </c>
       <c r="Y16" t="n">
-        <v>340.6226017671062</v>
+        <v>33.68815463109883</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.71723769585008</v>
+        <v>387.2984282510219</v>
       </c>
       <c r="AA16" t="n">
-        <v>241.2490408373775</v>
+        <v>59.1950765322098</v>
       </c>
       <c r="AB16" t="n">
-        <v>35.43103998623227</v>
+        <v>57178.94440990926</v>
       </c>
       <c r="AC16" t="n">
-        <v>38561.54758367508</v>
+        <v>1905.963390506342</v>
       </c>
       <c r="AD16" t="n">
-        <v>1905.963390506342</v>
+        <v>11229.410897321</v>
       </c>
       <c r="AE16" t="n">
-        <v>7366.296649361305</v>
+        <v>4298.038561827992</v>
       </c>
       <c r="AF16" t="n">
-        <v>2806.431740713841</v>
+        <v>391.3397423752375</v>
       </c>
       <c r="AG16" t="n">
-        <v>259.5551401980321</v>
+        <v>1249.681294983187</v>
       </c>
       <c r="AH16" t="n">
-        <v>819.9434631415611</v>
+        <v>57.14322667220657</v>
       </c>
       <c r="AI16" t="n">
-        <v>39.60222118309157</v>
+        <v>5547.721347443103</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3626.375203855402</v>
+        <v>448.4806436599325</v>
       </c>
       <c r="AK16" t="n">
-        <v>299.1573613811236</v>
+        <v>637.8165201387839</v>
       </c>
       <c r="AL16" t="n">
-        <v>430.1344574500147</v>
+        <v>32.97558629493103</v>
       </c>
       <c r="AM16" t="n">
-        <v>21.49920765539939</v>
+        <v>452.3078921331613</v>
       </c>
       <c r="AN16" t="n">
-        <v>309.9011555579875</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>50.2971676944826</v>
+        <v>76.52558961983185</v>
       </c>
     </row>
     <row r="17">
@@ -2559,85 +2509,82 @@
         <v>152.8628377798386</v>
       </c>
       <c r="O17" t="n">
-        <v>371.0877548039754</v>
+        <v>53235.18555854591</v>
       </c>
       <c r="P17" t="n">
-        <v>35253.13848304593</v>
+        <v>1774.506019887127</v>
       </c>
       <c r="Q17" t="n">
-        <v>1774.506019887127</v>
+        <v>8709.134715255474</v>
       </c>
       <c r="R17" t="n">
-        <v>5509.628871381852</v>
+        <v>3439.983026030691</v>
       </c>
       <c r="S17" t="n">
-        <v>2094.368260475761</v>
+        <v>324.1668786958568</v>
       </c>
       <c r="T17" t="n">
-        <v>198.459853165126</v>
+        <v>1115.079225677382</v>
       </c>
       <c r="U17" t="n">
-        <v>689.991476994117</v>
+        <v>56.27389463740501</v>
       </c>
       <c r="V17" t="n">
-        <v>35.6559976516984</v>
+        <v>4555.064659931601</v>
       </c>
       <c r="W17" t="n">
-        <v>2784.359737469877</v>
+        <v>380.4400061276315</v>
       </c>
       <c r="X17" t="n">
-        <v>234.1158508168245</v>
+        <v>592.9800842477825</v>
       </c>
       <c r="Y17" t="n">
-        <v>378.9425011805283</v>
+        <v>29.65741986448644</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.96942122718058</v>
+        <v>419.7473351550119</v>
       </c>
       <c r="AA17" t="n">
-        <v>275.5014401978417</v>
+        <v>61.993969599103</v>
       </c>
       <c r="AB17" t="n">
-        <v>36.99658089869661</v>
+        <v>57311.49838220618</v>
       </c>
       <c r="AC17" t="n">
-        <v>38217.96475275014</v>
+        <v>1910.385274427874</v>
       </c>
       <c r="AD17" t="n">
-        <v>1910.385274427874</v>
+        <v>10891.21703719321</v>
       </c>
       <c r="AE17" t="n">
-        <v>7151.10239454137</v>
+        <v>4013.916738582916</v>
       </c>
       <c r="AF17" t="n">
-        <v>2597.892332292407</v>
+        <v>368.5930424821086</v>
       </c>
       <c r="AG17" t="n">
-        <v>243.8481914759758</v>
+        <v>961.4320610944488</v>
       </c>
       <c r="AH17" t="n">
-        <v>618.0673857121943</v>
+        <v>53.74698945122912</v>
       </c>
       <c r="AI17" t="n">
-        <v>34.14807450286528</v>
+        <v>4975.349341910723</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3215.959718004601</v>
+        <v>422.340142502025</v>
       </c>
       <c r="AK17" t="n">
-        <v>277.9962659788411</v>
+        <v>636.1939611431615</v>
       </c>
       <c r="AL17" t="n">
-        <v>428.1729629939376</v>
+        <v>29.68329713489544</v>
       </c>
       <c r="AM17" t="n">
-        <v>19.72488613712882</v>
+        <v>485.0709817535956</v>
       </c>
       <c r="AN17" t="n">
-        <v>324.8158917597141</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>51.38775877188634</v>
+        <v>81.16417416985867</v>
       </c>
     </row>
     <row r="18">
@@ -2684,85 +2631,82 @@
         <v>157.1272884149539</v>
       </c>
       <c r="O18" t="n">
-        <v>375.3426100628985</v>
+        <v>54939.18840742647</v>
       </c>
       <c r="P18" t="n">
-        <v>35230.5829870395</v>
+        <v>1831.305477757109</v>
       </c>
       <c r="Q18" t="n">
-        <v>1831.305477757109</v>
+        <v>9240.365537571275</v>
       </c>
       <c r="R18" t="n">
-        <v>5603.9821650496</v>
+        <v>3695.737444933243</v>
       </c>
       <c r="S18" t="n">
-        <v>2135.72573746765</v>
+        <v>348.3309905056506</v>
       </c>
       <c r="T18" t="n">
-        <v>204.6499402260462</v>
+        <v>1191.596226451297</v>
       </c>
       <c r="U18" t="n">
-        <v>694.6642452421081</v>
+        <v>59.23923710457613</v>
       </c>
       <c r="V18" t="n">
-        <v>35.5689486502764</v>
+        <v>4887.334403023176</v>
       </c>
       <c r="W18" t="n">
-        <v>2830.389982709758</v>
+        <v>407.5683552403015</v>
       </c>
       <c r="X18" t="n">
-        <v>240.2188888763226</v>
+        <v>599.0864190191885</v>
       </c>
       <c r="Y18" t="n">
-        <v>375.0708223701316</v>
+        <v>30.87202547498731</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.63976279874154</v>
+        <v>405.4047295541881</v>
       </c>
       <c r="AA18" t="n">
-        <v>262.7238321582567</v>
+        <v>60.65728180551427</v>
       </c>
       <c r="AB18" t="n">
-        <v>37.68813764723998</v>
+        <v>57986.15230048397</v>
       </c>
       <c r="AC18" t="n">
-        <v>36465.57810989815</v>
+        <v>1932.870700397024</v>
       </c>
       <c r="AD18" t="n">
-        <v>1932.870700397024</v>
+        <v>11211.50275249288</v>
       </c>
       <c r="AE18" t="n">
-        <v>6825.106218483358</v>
+        <v>4272.448918748411</v>
       </c>
       <c r="AF18" t="n">
-        <v>2614.99100120335</v>
+        <v>395.8173930683766</v>
       </c>
       <c r="AG18" t="n">
-        <v>245.1966817426011</v>
+        <v>1121.669899283848</v>
       </c>
       <c r="AH18" t="n">
-        <v>706.2507742611214</v>
+        <v>56.4955837670875</v>
       </c>
       <c r="AI18" t="n">
-        <v>36.16646541173107</v>
+        <v>5394.127625126413</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3321.241775464471</v>
+        <v>452.3123682330386</v>
       </c>
       <c r="AK18" t="n">
-        <v>281.3631471543322</v>
+        <v>644.0710454509273</v>
       </c>
       <c r="AL18" t="n">
-        <v>411.8507630438099</v>
+        <v>34.70037094939744</v>
       </c>
       <c r="AM18" t="n">
-        <v>20.27270857230835</v>
+        <v>456.7592209046864</v>
       </c>
       <c r="AN18" t="n">
-        <v>294.6190365890974</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>50.40956754882728</v>
+        <v>83.5515784715741</v>
       </c>
     </row>
     <row r="19">
@@ -2809,85 +2753,82 @@
         <v>162.5538583849452</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2453980042769</v>
+        <v>55882.38538723037</v>
       </c>
       <c r="P19" t="n">
-        <v>34951.69472536883</v>
+        <v>1862.7457698198</v>
       </c>
       <c r="Q19" t="n">
-        <v>1862.7457698198</v>
+        <v>9577.250584093144</v>
       </c>
       <c r="R19" t="n">
-        <v>5638.395311617457</v>
+        <v>4023.793666336831</v>
       </c>
       <c r="S19" t="n">
-        <v>2242.05568376046</v>
+        <v>374.7160517991833</v>
       </c>
       <c r="T19" t="n">
-        <v>210.6334245128928</v>
+        <v>1333.483703913202</v>
       </c>
       <c r="U19" t="n">
-        <v>712.7945811713028</v>
+        <v>63.47809332960816</v>
       </c>
       <c r="V19" t="n">
-        <v>35.86758506679299</v>
+        <v>5357.280056656972</v>
       </c>
       <c r="W19" t="n">
-        <v>2954.850264931763</v>
+        <v>438.198130688897</v>
       </c>
       <c r="X19" t="n">
-        <v>246.5010095796858</v>
+        <v>610.6951549326511</v>
       </c>
       <c r="Y19" t="n">
-        <v>371.5474639820854</v>
+        <v>35.20354609949209</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.92201650145876</v>
+        <v>399.6789435316134</v>
       </c>
       <c r="AA19" t="n">
-        <v>254.441669176418</v>
+        <v>67.97208762834053</v>
       </c>
       <c r="AB19" t="n">
-        <v>40.12892646053155</v>
+        <v>58030.61590355272</v>
       </c>
       <c r="AC19" t="n">
-        <v>37298.77867459515</v>
+        <v>1934.350147285036</v>
       </c>
       <c r="AD19" t="n">
-        <v>1934.350147285036</v>
+        <v>11441.96671672159</v>
       </c>
       <c r="AE19" t="n">
-        <v>7111.199699571912</v>
+        <v>4505.817504701771</v>
       </c>
       <c r="AF19" t="n">
-        <v>2744.733171513665</v>
+        <v>421.4676847316464</v>
       </c>
       <c r="AG19" t="n">
-        <v>256.3662385609401</v>
+        <v>1225.30571293674</v>
       </c>
       <c r="AH19" t="n">
-        <v>745.2957328495642</v>
+        <v>63.97733454570641</v>
       </c>
       <c r="AI19" t="n">
-        <v>38.34335442825449</v>
+        <v>5731.120516826205</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3490.028904363229</v>
+        <v>485.4456369259482</v>
       </c>
       <c r="AK19" t="n">
-        <v>294.7095929891946</v>
+        <v>673.0376879371287</v>
       </c>
       <c r="AL19" t="n">
-        <v>434.5909511578761</v>
+        <v>34.69856968015904</v>
       </c>
       <c r="AM19" t="n">
-        <v>21.91222428234733</v>
+        <v>466.9490777279447</v>
       </c>
       <c r="AN19" t="n">
-        <v>312.9826776209081</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>53.36020778550908</v>
+        <v>85.52823375007685</v>
       </c>
     </row>
     <row r="20">
@@ -2934,85 +2875,82 @@
         <v>162.6395527191468</v>
       </c>
       <c r="O20" t="n">
-        <v>367.9589286854052</v>
+        <v>55175.3928044025</v>
       </c>
       <c r="P20" t="n">
-        <v>34034.22741709626</v>
+        <v>1839.182757631411</v>
       </c>
       <c r="Q20" t="n">
-        <v>1839.182757631411</v>
+        <v>9544.888889251835</v>
       </c>
       <c r="R20" t="n">
-        <v>5518.936807953141</v>
+        <v>3805.009095493796</v>
       </c>
       <c r="S20" t="n">
-        <v>2168.827116926715</v>
+        <v>357.3822717742733</v>
       </c>
       <c r="T20" t="n">
-        <v>208.169886164026</v>
+        <v>1311.34917795832</v>
       </c>
       <c r="U20" t="n">
-        <v>725.3421634459172</v>
+        <v>62.68437957727049</v>
       </c>
       <c r="V20" t="n">
-        <v>35.72813263549178</v>
+        <v>5116.358160645421</v>
       </c>
       <c r="W20" t="n">
-        <v>2894.169280372632</v>
+        <v>420.0723396060564</v>
       </c>
       <c r="X20" t="n">
-        <v>243.8980187995178</v>
+        <v>593.2167937922915</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.7129165492187</v>
+        <v>36.81299830538642</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.9877510453383</v>
+        <v>409.0689071735979</v>
       </c>
       <c r="AA20" t="n">
-        <v>251.1137445046371</v>
+        <v>68.57689412445633</v>
       </c>
       <c r="AB20" t="n">
-        <v>39.20098441129664</v>
+        <v>56577.49258087813</v>
       </c>
       <c r="AC20" t="n">
-        <v>38638.83597205114</v>
+        <v>1885.916012438841</v>
       </c>
       <c r="AD20" t="n">
-        <v>1885.916012438841</v>
+        <v>10946.94871953364</v>
       </c>
       <c r="AE20" t="n">
-        <v>7320.574391116828</v>
+        <v>4154.228458997066</v>
       </c>
       <c r="AF20" t="n">
-        <v>2686.800792210638</v>
+        <v>374.35227369778</v>
       </c>
       <c r="AG20" t="n">
-        <v>246.794331690911</v>
+        <v>1003.374375311716</v>
       </c>
       <c r="AH20" t="n">
-        <v>647.1392247745321</v>
+        <v>52.66127007010197</v>
       </c>
       <c r="AI20" t="n">
-        <v>35.1317690489517</v>
+        <v>5157.604916404137</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3333.94001698517</v>
+        <v>427.0191895381114</v>
       </c>
       <c r="AK20" t="n">
-        <v>281.9261007398626</v>
+        <v>632.6285050860158</v>
       </c>
       <c r="AL20" t="n">
-        <v>435.3711882926821</v>
+        <v>29.7791048670653</v>
       </c>
       <c r="AM20" t="n">
-        <v>20.35694743517753</v>
+        <v>468.6425976333732</v>
       </c>
       <c r="AN20" t="n">
-        <v>326.3428263059077</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>54.65053916281339</v>
+        <v>81.06551075088683</v>
       </c>
     </row>
     <row r="21">
@@ -3059,85 +2997,82 @@
         <v>152.0023947528233</v>
       </c>
       <c r="O21" t="n">
-        <v>364.1486597901462</v>
+        <v>51852.61459221825</v>
       </c>
       <c r="P21" t="n">
-        <v>34220.16525430838</v>
+        <v>1728.420830484299</v>
       </c>
       <c r="Q21" t="n">
-        <v>1728.420830484299</v>
+        <v>8711.976186208578</v>
       </c>
       <c r="R21" t="n">
-        <v>5494.017070194451</v>
+        <v>3547.794126518382</v>
       </c>
       <c r="S21" t="n">
-        <v>2145.305099344781</v>
+        <v>329.6305308285133</v>
       </c>
       <c r="T21" t="n">
-        <v>201.4305773193909</v>
+        <v>1280.836597142443</v>
       </c>
       <c r="U21" t="n">
-        <v>760.6647115504676</v>
+        <v>62.07475710167951</v>
       </c>
       <c r="V21" t="n">
-        <v>37.74358174063927</v>
+        <v>4828.63014115535</v>
       </c>
       <c r="W21" t="n">
-        <v>2905.969810895249</v>
+        <v>391.7172096152475</v>
       </c>
       <c r="X21" t="n">
-        <v>239.1741590600302</v>
+        <v>550.5001424554326</v>
       </c>
       <c r="Y21" t="n">
-        <v>348.49569240055</v>
+        <v>28.96448965254946</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.9751594552947</v>
+        <v>385.8213372062631</v>
       </c>
       <c r="AA21" t="n">
-        <v>250.9614996403248</v>
+        <v>55.90961118121918</v>
       </c>
       <c r="AB21" t="n">
-        <v>35.18425714142922</v>
+        <v>55369.81627532013</v>
       </c>
       <c r="AC21" t="n">
-        <v>39429.86144628526</v>
+        <v>1845.657059317003</v>
       </c>
       <c r="AD21" t="n">
-        <v>1845.657059317003</v>
+        <v>10746.48186347193</v>
       </c>
       <c r="AE21" t="n">
-        <v>7393.789171271163</v>
+        <v>4100.154909687827</v>
       </c>
       <c r="AF21" t="n">
-        <v>2789.179303912744</v>
+        <v>369.0380653038403</v>
       </c>
       <c r="AG21" t="n">
-        <v>251.0764517958602</v>
+        <v>992.0743506213331</v>
       </c>
       <c r="AH21" t="n">
-        <v>669.9979155273679</v>
+        <v>53.40821088499508</v>
       </c>
       <c r="AI21" t="n">
-        <v>37.20703687582944</v>
+        <v>5092.230545052438</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3459.177219440112</v>
+        <v>422.4550855806125</v>
       </c>
       <c r="AK21" t="n">
-        <v>288.2834886716897</v>
+        <v>619.1899733771669</v>
       </c>
       <c r="AL21" t="n">
-        <v>435.8295161548604</v>
+        <v>30.77595775008391</v>
       </c>
       <c r="AM21" t="n">
-        <v>20.52147138977704</v>
+        <v>446.5629064436571</v>
       </c>
       <c r="AN21" t="n">
-        <v>322.9007303587063</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>55.04588968890365</v>
+        <v>81.08240642759368</v>
       </c>
     </row>
     <row r="22">
@@ -3184,85 +3119,82 @@
         <v>159.6267458397889</v>
       </c>
       <c r="O22" t="n">
-        <v>384.1305214037587</v>
+        <v>58593.51758348219</v>
       </c>
       <c r="P22" t="n">
-        <v>35130.4349676932</v>
+        <v>1953.115455909282</v>
       </c>
       <c r="Q22" t="n">
-        <v>1953.115455909282</v>
+        <v>10106.30764491483</v>
       </c>
       <c r="R22" t="n">
-        <v>5780.942572825259</v>
+        <v>4287.883907421884</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.498834252041</v>
+        <v>397.5413715928556</v>
       </c>
       <c r="T22" t="n">
-        <v>220.2273991468981</v>
+        <v>1594.174359248961</v>
       </c>
       <c r="U22" t="n">
-        <v>835.6192321488555</v>
+        <v>73.61777533582416</v>
       </c>
       <c r="V22" t="n">
-        <v>41.24959240870325</v>
+        <v>5882.061918130724</v>
       </c>
       <c r="W22" t="n">
-        <v>3180.118066400896</v>
+        <v>471.1515644867378</v>
       </c>
       <c r="X22" t="n">
-        <v>261.4769915556013</v>
+        <v>647.3921250817839</v>
       </c>
       <c r="Y22" t="n">
-        <v>378.1329619784836</v>
+        <v>38.90772811487596</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.43325158728128</v>
+        <v>422.8158390520839</v>
       </c>
       <c r="AA22" t="n">
-        <v>260.6331627876141</v>
+        <v>71.28072983556966</v>
       </c>
       <c r="AB22" t="n">
-        <v>39.26885872550861</v>
+        <v>61666.80503753714</v>
       </c>
       <c r="AC22" t="n">
-        <v>38392.18845140792</v>
+        <v>2055.561452657002</v>
       </c>
       <c r="AD22" t="n">
-        <v>2055.561452657002</v>
+        <v>12383.37501554147</v>
       </c>
       <c r="AE22" t="n">
-        <v>7499.719021643942</v>
+        <v>5090.710436305488</v>
       </c>
       <c r="AF22" t="n">
-        <v>2968.346742412515</v>
+        <v>457.4028355430515</v>
       </c>
       <c r="AG22" t="n">
-        <v>273.2577273073804</v>
+        <v>1381.049895359274</v>
       </c>
       <c r="AH22" t="n">
-        <v>827.6927599385521</v>
+        <v>64.41721820335749</v>
       </c>
       <c r="AI22" t="n">
-        <v>40.72718132758686</v>
+        <v>6471.76225241099</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3796.039502351067</v>
+        <v>521.8207580632881</v>
       </c>
       <c r="AK22" t="n">
-        <v>313.9849086349672</v>
+        <v>679.0034126051614</v>
       </c>
       <c r="AL22" t="n">
-        <v>431.2454688231855</v>
+        <v>32.37987840518385</v>
       </c>
       <c r="AM22" t="n">
-        <v>20.24868789425705</v>
+        <v>491.0779906313288</v>
       </c>
       <c r="AN22" t="n">
-        <v>314.110586159958</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>52.44825431409192</v>
+        <v>88.79783565931054</v>
       </c>
     </row>
     <row r="23">
@@ -3309,85 +3241,82 @@
         <v>159.4414049444542</v>
       </c>
       <c r="O23" t="n">
-        <v>372.7230042025515</v>
+        <v>53513.06501781552</v>
       </c>
       <c r="P23" t="n">
-        <v>35136.89315671661</v>
+        <v>1783.768088724358</v>
       </c>
       <c r="Q23" t="n">
-        <v>1783.768088724358</v>
+        <v>9173.108695288938</v>
       </c>
       <c r="R23" t="n">
-        <v>5699.318441697681</v>
+        <v>3796.398350101933</v>
       </c>
       <c r="S23" t="n">
-        <v>2219.292665718041</v>
+        <v>356.068902349579</v>
       </c>
       <c r="T23" t="n">
-        <v>208.6666712648713</v>
+        <v>1341.166358280265</v>
       </c>
       <c r="U23" t="n">
-        <v>724.2175068534123</v>
+        <v>64.81503021468856</v>
       </c>
       <c r="V23" t="n">
-        <v>36.7838598092408</v>
+        <v>5137.562988635521</v>
       </c>
       <c r="W23" t="n">
-        <v>2943.510172571454</v>
+        <v>420.8888675045064</v>
       </c>
       <c r="X23" t="n">
-        <v>245.4505310741121</v>
+        <v>566.5769450356656</v>
       </c>
       <c r="Y23" t="n">
-        <v>365.8859637221778</v>
+        <v>34.67265778885101</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.12946345492914</v>
+        <v>394.8787793052991</v>
       </c>
       <c r="AA23" t="n">
-        <v>262.3654857731409</v>
+        <v>61.93183103932536</v>
       </c>
       <c r="AB23" t="n">
-        <v>37.87632551151534</v>
+        <v>57099.84063533873</v>
       </c>
       <c r="AC23" t="n">
-        <v>37445.0780626143</v>
+        <v>1903.327787813632</v>
       </c>
       <c r="AD23" t="n">
-        <v>1903.327787813632</v>
+        <v>11314.17092349287</v>
       </c>
       <c r="AE23" t="n">
-        <v>7231.307157132538</v>
+        <v>4549.927645138338</v>
       </c>
       <c r="AF23" t="n">
-        <v>2799.980608283321</v>
+        <v>410.9007456990323</v>
       </c>
       <c r="AG23" t="n">
-        <v>259.5432120682748</v>
+        <v>1167.180927904</v>
       </c>
       <c r="AH23" t="n">
-        <v>714.1453917064906</v>
+        <v>63.64194388890681</v>
       </c>
       <c r="AI23" t="n">
-        <v>39.22458946282676</v>
+        <v>5717.107329954215</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3514.125999989811</v>
+        <v>474.5463439209951</v>
       </c>
       <c r="AK23" t="n">
-        <v>298.7678015311016</v>
+        <v>642.7113348767164</v>
       </c>
       <c r="AL23" t="n">
-        <v>430.9664868761269</v>
+        <v>31.95134975770129</v>
       </c>
       <c r="AM23" t="n">
-        <v>19.85555750694187</v>
+        <v>454.8812229743015</v>
       </c>
       <c r="AN23" t="n">
-        <v>310.860854665599</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>55.48892476871016</v>
+        <v>86.7964311809143</v>
       </c>
     </row>
     <row r="24">
@@ -3434,85 +3363,82 @@
         <v>166.069888381517</v>
       </c>
       <c r="O24" t="n">
-        <v>364.5630331768682</v>
+        <v>53023.57679801148</v>
       </c>
       <c r="P24" t="n">
-        <v>34316.95841684911</v>
+        <v>1767.451708930174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1767.451708930174</v>
+        <v>9168.695373632472</v>
       </c>
       <c r="R24" t="n">
-        <v>5629.349984669871</v>
+        <v>3938.141369047301</v>
       </c>
       <c r="S24" t="n">
-        <v>2317.765682114004</v>
+        <v>355.0627430226212</v>
       </c>
       <c r="T24" t="n">
-        <v>214.1724820993128</v>
+        <v>1403.767329057552</v>
       </c>
       <c r="U24" t="n">
-        <v>797.4241605845515</v>
+        <v>67.21172205821891</v>
       </c>
       <c r="V24" t="n">
-        <v>39.98187955893091</v>
+        <v>5341.906214147408</v>
       </c>
       <c r="W24" t="n">
-        <v>3115.189842698556</v>
+        <v>422.2706037780007</v>
       </c>
       <c r="X24" t="n">
-        <v>254.1543616582437</v>
+        <v>553.2746991442993</v>
       </c>
       <c r="Y24" t="n">
-        <v>355.2655422588469</v>
+        <v>33.8979501741041</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.39898131542959</v>
+        <v>377.7406407588559</v>
       </c>
       <c r="AA24" t="n">
-        <v>247.2556146739419</v>
+        <v>62.67650605731008</v>
       </c>
       <c r="AB24" t="n">
-        <v>39.24037546912755</v>
+        <v>58676.84587725615</v>
       </c>
       <c r="AC24" t="n">
-        <v>38597.40847905028</v>
+        <v>1955.896037546619</v>
       </c>
       <c r="AD24" t="n">
-        <v>1955.896037546619</v>
+        <v>11890.24717095421</v>
       </c>
       <c r="AE24" t="n">
-        <v>7527.013601899488</v>
+        <v>4774.2299244252</v>
       </c>
       <c r="AF24" t="n">
-        <v>2964.533979541441</v>
+        <v>421.4336821920629</v>
       </c>
       <c r="AG24" t="n">
-        <v>267.9375334830018</v>
+        <v>1245.334467576412</v>
       </c>
       <c r="AH24" t="n">
-        <v>758.9700742921584</v>
+        <v>60.92785945353759</v>
       </c>
       <c r="AI24" t="n">
-        <v>39.28361044078208</v>
+        <v>6019.557462038073</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3723.504053833599</v>
+        <v>482.3648113000276</v>
       </c>
       <c r="AK24" t="n">
-        <v>307.2211439237839</v>
+        <v>644.1441559743998</v>
       </c>
       <c r="AL24" t="n">
-        <v>435.4999589277132</v>
+        <v>36.64869513492965</v>
       </c>
       <c r="AM24" t="n">
-        <v>21.98524336272774</v>
+        <v>452.295480618034</v>
       </c>
       <c r="AN24" t="n">
-        <v>314.0321520429671</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>53.76406321754703</v>
+        <v>88.03177990201058</v>
       </c>
     </row>
     <row r="25">
@@ -3559,85 +3485,82 @@
         <v>162.8165801492019</v>
       </c>
       <c r="O25" t="n">
-        <v>365.7877326967742</v>
+        <v>54603.55759892177</v>
       </c>
       <c r="P25" t="n">
-        <v>33113.85083523385</v>
+        <v>1820.114956853349</v>
       </c>
       <c r="Q25" t="n">
-        <v>1820.114956853349</v>
+        <v>9473.189125984871</v>
       </c>
       <c r="R25" t="n">
-        <v>5515.476219864496</v>
+        <v>4075.880811678603</v>
       </c>
       <c r="S25" t="n">
-        <v>2270.507691316721</v>
+        <v>375.217536557685</v>
       </c>
       <c r="T25" t="n">
-        <v>210.3764194857644</v>
+        <v>1417.03539440984</v>
       </c>
       <c r="U25" t="n">
-        <v>735.1349748167029</v>
+        <v>72.35501613518809</v>
       </c>
       <c r="V25" t="n">
-        <v>39.06195451192534</v>
+        <v>5492.915491029359</v>
       </c>
       <c r="W25" t="n">
-        <v>3005.642666133424</v>
+        <v>447.5788992771866</v>
       </c>
       <c r="X25" t="n">
-        <v>249.4383739976898</v>
+        <v>576.5933133756226</v>
       </c>
       <c r="Y25" t="n">
-        <v>346.0644091550419</v>
+        <v>37.28529285749156</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.61977929790984</v>
+        <v>388.8392848763885</v>
       </c>
       <c r="AA25" t="n">
-        <v>237.8251190417945</v>
+        <v>70.34786655927714</v>
       </c>
       <c r="AB25" t="n">
-        <v>39.48280050614489</v>
+        <v>57479.13525363606</v>
       </c>
       <c r="AC25" t="n">
-        <v>37162.22541710595</v>
+        <v>1915.97123763166</v>
       </c>
       <c r="AD25" t="n">
-        <v>1915.97123763166</v>
+        <v>11548.51618291678</v>
       </c>
       <c r="AE25" t="n">
-        <v>7232.291174044181</v>
+        <v>4630.3727101744</v>
       </c>
       <c r="AF25" t="n">
-        <v>2819.896293444693</v>
+        <v>415.3012779684252</v>
       </c>
       <c r="AG25" t="n">
-        <v>254.7955709296505</v>
+        <v>1159.150418472858</v>
       </c>
       <c r="AH25" t="n">
-        <v>678.0075519505001</v>
+        <v>63.88237927254525</v>
       </c>
       <c r="AI25" t="n">
-        <v>37.7054522019616</v>
+        <v>5789.522413371497</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3497.903845395193</v>
+        <v>479.1861128784514</v>
       </c>
       <c r="AK25" t="n">
-        <v>292.5010231316121</v>
+        <v>653.176230320972</v>
       </c>
       <c r="AL25" t="n">
-        <v>424.2936385882638</v>
+        <v>35.49734557008474</v>
       </c>
       <c r="AM25" t="n">
-        <v>21.34211450291828</v>
+        <v>458.3200234234361</v>
       </c>
       <c r="AN25" t="n">
-        <v>305.9354315464218</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>52.66778388526991</v>
+        <v>85.57847147072468</v>
       </c>
     </row>
     <row r="26">
@@ -3684,85 +3607,82 @@
         <v>165.4315273324904</v>
       </c>
       <c r="O26" t="n">
-        <v>368.0161276232871</v>
+        <v>54163.2321851256</v>
       </c>
       <c r="P26" t="n">
-        <v>35770.4099391162</v>
+        <v>1805.444141898105</v>
       </c>
       <c r="Q26" t="n">
-        <v>1805.444141898105</v>
+        <v>9291.68249808972</v>
       </c>
       <c r="R26" t="n">
-        <v>5905.064816979238</v>
+        <v>3895.615299881813</v>
       </c>
       <c r="S26" t="n">
-        <v>2370.869349289293</v>
+        <v>367.6193236194403</v>
       </c>
       <c r="T26" t="n">
-        <v>227.3230504455319</v>
+        <v>1415.491106526116</v>
       </c>
       <c r="U26" t="n">
-        <v>859.2461593493265</v>
+        <v>68.69093380801365</v>
       </c>
       <c r="V26" t="n">
-        <v>43.08475940307526</v>
+        <v>5311.100741684008</v>
       </c>
       <c r="W26" t="n">
-        <v>3230.11550863862</v>
+        <v>436.3146756493497</v>
       </c>
       <c r="X26" t="n">
-        <v>270.4078098486072</v>
+        <v>588.1325970836981</v>
       </c>
       <c r="Y26" t="n">
-        <v>383.8949289236647</v>
+        <v>30.78750457829631</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.28798360547363</v>
+        <v>402.1730996363679</v>
       </c>
       <c r="AA26" t="n">
-        <v>267.339123608165</v>
+        <v>56.14873048890492</v>
       </c>
       <c r="AB26" t="n">
-        <v>36.93670798192893</v>
+        <v>57196.41828164574</v>
       </c>
       <c r="AC26" t="n">
-        <v>39328.67327552065</v>
+        <v>1906.542932653695</v>
       </c>
       <c r="AD26" t="n">
-        <v>1906.542932653695</v>
+        <v>11311.55373739178</v>
       </c>
       <c r="AE26" t="n">
-        <v>7579.654382990268</v>
+        <v>4599.732822367486</v>
       </c>
       <c r="AF26" t="n">
-        <v>3029.243018988995</v>
+        <v>411.5909454276985</v>
       </c>
       <c r="AG26" t="n">
-        <v>274.3979913298716</v>
+        <v>1136.638761405281</v>
       </c>
       <c r="AH26" t="n">
-        <v>766.6064884474941</v>
+        <v>57.45983284442925</v>
       </c>
       <c r="AI26" t="n">
-        <v>41.15443188875197</v>
+        <v>5736.373383067117</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3795.849507436489</v>
+        <v>469.0472219178001</v>
       </c>
       <c r="AK26" t="n">
-        <v>315.5524232186235</v>
+        <v>649.0761118532193</v>
       </c>
       <c r="AL26" t="n">
-        <v>450.7478169678226</v>
+        <v>30.92096070169469</v>
       </c>
       <c r="AM26" t="n">
-        <v>20.6212344744196</v>
+        <v>477.9568926086093</v>
       </c>
       <c r="AN26" t="n">
-        <v>331.2736828179781</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>54.71327031532781</v>
+        <v>82.40482512939836</v>
       </c>
     </row>
     <row r="27">
@@ -3809,85 +3729,82 @@
         <v>164.1578410534422</v>
       </c>
       <c r="O27" t="n">
-        <v>362.5754189897559</v>
+        <v>52431.94521616959</v>
       </c>
       <c r="P27" t="n">
-        <v>34112.08054382769</v>
+        <v>1747.731032500214</v>
       </c>
       <c r="Q27" t="n">
-        <v>1747.731032500214</v>
+        <v>8889.606587068065</v>
       </c>
       <c r="R27" t="n">
-        <v>5468.180861470039</v>
+        <v>3659.350640462525</v>
       </c>
       <c r="S27" t="n">
-        <v>2157.352389535769</v>
+        <v>342.7969097197887</v>
       </c>
       <c r="T27" t="n">
-        <v>204.0257585957527</v>
+        <v>1332.005091768538</v>
       </c>
       <c r="U27" t="n">
-        <v>740.6438585934393</v>
+        <v>63.00972761491912</v>
       </c>
       <c r="V27" t="n">
-        <v>37.70841382346851</v>
+        <v>4991.350090084768</v>
       </c>
       <c r="W27" t="n">
-        <v>2897.996248129208</v>
+        <v>405.8009405211378</v>
       </c>
       <c r="X27" t="n">
-        <v>241.7341724192212</v>
+        <v>557.2332259814279</v>
       </c>
       <c r="Y27" t="n">
-        <v>358.9690424965347</v>
+        <v>36.27347176966961</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.92642132356716</v>
+        <v>380.8469676563593</v>
       </c>
       <c r="AA27" t="n">
-        <v>255.0694720072282</v>
+        <v>59.3362547459266</v>
       </c>
       <c r="AB27" t="n">
-        <v>38.53089868988629</v>
+        <v>58556.85388589073</v>
       </c>
       <c r="AC27" t="n">
-        <v>37670.9085248884</v>
+        <v>1951.893087950578</v>
       </c>
       <c r="AD27" t="n">
-        <v>1951.893087950578</v>
+        <v>11869.37941660134</v>
       </c>
       <c r="AE27" t="n">
-        <v>7304.712932345987</v>
+        <v>4776.539480676636</v>
       </c>
       <c r="AF27" t="n">
-        <v>2817.546676080739</v>
+        <v>435.2834039946811</v>
       </c>
       <c r="AG27" t="n">
-        <v>259.7673181033067</v>
+        <v>1360.316905927149</v>
       </c>
       <c r="AH27" t="n">
-        <v>769.6078857568006</v>
+        <v>69.85438972195712</v>
       </c>
       <c r="AI27" t="n">
-        <v>41.18624830970566</v>
+        <v>6136.852096558253</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3587.154561837539</v>
+        <v>505.1409345284268</v>
       </c>
       <c r="AK27" t="n">
-        <v>300.9535664130124</v>
+        <v>652.2249453519747</v>
       </c>
       <c r="AL27" t="n">
-        <v>427.7966825608863</v>
+        <v>33.65597895155649</v>
       </c>
       <c r="AM27" t="n">
-        <v>21.33884458581969</v>
+        <v>467.6228732431662</v>
       </c>
       <c r="AN27" t="n">
-        <v>314.1546040560989</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>54.07109924938348</v>
+        <v>88.27940297828341</v>
       </c>
     </row>
     <row r="28">
@@ -3934,85 +3851,82 @@
         <v>155.8036511311424</v>
       </c>
       <c r="O28" t="n">
-        <v>366.1774811699352</v>
+        <v>54032.38320753282</v>
       </c>
       <c r="P28" t="n">
-        <v>32997.56790108266</v>
+        <v>1801.078455020857</v>
       </c>
       <c r="Q28" t="n">
-        <v>1801.078455020857</v>
+        <v>9193.107799760788</v>
       </c>
       <c r="R28" t="n">
-        <v>5318.309018634319</v>
+        <v>3902.868526600214</v>
       </c>
       <c r="S28" t="n">
-        <v>2123.289917143372</v>
+        <v>355.1585601724143</v>
       </c>
       <c r="T28" t="n">
-        <v>200.3542462279785</v>
+        <v>1470.20474893691</v>
       </c>
       <c r="U28" t="n">
-        <v>767.6571934451391</v>
+        <v>66.64874069707237</v>
       </c>
       <c r="V28" t="n">
-        <v>38.8190663886368</v>
+        <v>5373.075076249064</v>
       </c>
       <c r="W28" t="n">
-        <v>2890.947110588511</v>
+        <v>421.8086234838718</v>
       </c>
       <c r="X28" t="n">
-        <v>239.1733126166153</v>
+        <v>573.8974709762664</v>
       </c>
       <c r="Y28" t="n">
-        <v>346.2649578122283</v>
+        <v>31.64783312832805</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.83185662899402</v>
+        <v>382.8589543945332</v>
       </c>
       <c r="AA28" t="n">
-        <v>238.1293285913474</v>
+        <v>62.75056569517016</v>
       </c>
       <c r="AB28" t="n">
-        <v>36.65520188453392</v>
+        <v>57650.58608855623</v>
       </c>
       <c r="AC28" t="n">
-        <v>37186.36627188446</v>
+        <v>1921.685113629974</v>
       </c>
       <c r="AD28" t="n">
-        <v>1921.685113629974</v>
+        <v>11302.52010715091</v>
       </c>
       <c r="AE28" t="n">
-        <v>7140.064835108327</v>
+        <v>4415.372580768669</v>
       </c>
       <c r="AF28" t="n">
-        <v>2796.531500708715</v>
+        <v>408.1518101313422</v>
       </c>
       <c r="AG28" t="n">
-        <v>256.4817982037324</v>
+        <v>1258.949478745318</v>
       </c>
       <c r="AH28" t="n">
-        <v>749.0869921401213</v>
+        <v>63.39033537204022</v>
       </c>
       <c r="AI28" t="n">
-        <v>39.07935962091886</v>
+        <v>5674.323338390256</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3545.618492848836</v>
+        <v>471.5508459260692</v>
       </c>
       <c r="AK28" t="n">
-        <v>295.5611578246513</v>
+        <v>630.5630874937834</v>
       </c>
       <c r="AL28" t="n">
-        <v>412.2085801754145</v>
+        <v>30.88481378916373</v>
       </c>
       <c r="AM28" t="n">
-        <v>20.89534915427377</v>
+        <v>452.4959563707865</v>
       </c>
       <c r="AN28" t="n">
-        <v>298.9201032682038</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>49.56178445035049</v>
+        <v>77.72596727934332</v>
       </c>
     </row>
     <row r="29">
@@ -4059,85 +3973,82 @@
         <v>164.8222567722108</v>
       </c>
       <c r="O29" t="n">
-        <v>367.5654305158438</v>
+        <v>53101.29402233659</v>
       </c>
       <c r="P29" t="n">
-        <v>34334.13404554826</v>
+        <v>1770.04158372713</v>
       </c>
       <c r="Q29" t="n">
-        <v>1770.04158372713</v>
+        <v>9029.64264121385</v>
       </c>
       <c r="R29" t="n">
-        <v>5722.678075713313</v>
+        <v>3831.976339207634</v>
       </c>
       <c r="S29" t="n">
-        <v>2292.838482516066</v>
+        <v>363.4054575808787</v>
       </c>
       <c r="T29" t="n">
-        <v>218.4493140430309</v>
+        <v>1478.504138865038</v>
       </c>
       <c r="U29" t="n">
-        <v>826.984015900556</v>
+        <v>71.40122397651926</v>
       </c>
       <c r="V29" t="n">
-        <v>41.45571384743651</v>
+        <v>5310.485704859646</v>
       </c>
       <c r="W29" t="n">
-        <v>3119.822498416622</v>
+        <v>434.8104214837248</v>
       </c>
       <c r="X29" t="n">
-        <v>259.9050278904674</v>
+        <v>580.8999808076222</v>
       </c>
       <c r="Y29" t="n">
-        <v>370.9764691406641</v>
+        <v>33.9343292012401</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.3343331091565</v>
+        <v>391.4739194849669</v>
       </c>
       <c r="AA29" t="n">
-        <v>254.643699628082</v>
+        <v>67.22878444863838</v>
       </c>
       <c r="AB29" t="n">
-        <v>40.22207189790111</v>
+        <v>55488.89361458315</v>
       </c>
       <c r="AC29" t="n">
-        <v>34704.51588907811</v>
+        <v>1849.627279065542</v>
       </c>
       <c r="AD29" t="n">
-        <v>1849.627279065542</v>
+        <v>10883.34102641625</v>
       </c>
       <c r="AE29" t="n">
-        <v>6739.254631409019</v>
+        <v>4609.326284412658</v>
       </c>
       <c r="AF29" t="n">
-        <v>2710.204339333919</v>
+        <v>420.0150089265405</v>
       </c>
       <c r="AG29" t="n">
-        <v>248.9085457784511</v>
+        <v>1306.837936867219</v>
       </c>
       <c r="AH29" t="n">
-        <v>743.6427236959066</v>
+        <v>69.31222409058782</v>
       </c>
       <c r="AI29" t="n">
-        <v>39.71644433843998</v>
+        <v>5916.164934267601</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3453.847063029826</v>
+        <v>489.3286231922795</v>
       </c>
       <c r="AK29" t="n">
-        <v>288.6249901168911</v>
+        <v>635.3523376009792</v>
       </c>
       <c r="AL29" t="n">
-        <v>404.97116602791</v>
+        <v>31.9802020893998</v>
       </c>
       <c r="AM29" t="n">
-        <v>20.9895006331621</v>
+        <v>440.4298158719697</v>
       </c>
       <c r="AN29" t="n">
-        <v>283.4324332693416</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>53.52958729666909</v>
+        <v>86.35223187944121</v>
       </c>
     </row>
     <row r="30">
@@ -4184,85 +4095,82 @@
         <v>154.1363145856859</v>
       </c>
       <c r="O30" t="n">
-        <v>369.8537702942903</v>
+        <v>55215.70596970896</v>
       </c>
       <c r="P30" t="n">
-        <v>34648.59847584573</v>
+        <v>1840.525095110045</v>
       </c>
       <c r="Q30" t="n">
-        <v>1840.525095110045</v>
+        <v>9486.321085850555</v>
       </c>
       <c r="R30" t="n">
-        <v>5629.149014937124</v>
+        <v>3965.605543037297</v>
       </c>
       <c r="S30" t="n">
-        <v>2242.321996890334</v>
+        <v>358.1254553565781</v>
       </c>
       <c r="T30" t="n">
-        <v>210.5818728476898</v>
+        <v>1219.950864434769</v>
       </c>
       <c r="U30" t="n">
-        <v>765.318333765176</v>
+        <v>60.52878309101708</v>
       </c>
       <c r="V30" t="n">
-        <v>38.96519378641981</v>
+        <v>5185.556369883304</v>
       </c>
       <c r="W30" t="n">
-        <v>3007.640330655509</v>
+        <v>418.6573657882408</v>
       </c>
       <c r="X30" t="n">
-        <v>249.5470666341096</v>
+        <v>589.9606187519071</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.8436194607634</v>
+        <v>35.37694268994986</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.22548773173797</v>
+        <v>415.1994608110448</v>
       </c>
       <c r="AA30" t="n">
-        <v>262.4937427167772</v>
+        <v>63.26469388814424</v>
       </c>
       <c r="AB30" t="n">
-        <v>38.04179384786902</v>
+        <v>58595.62839951025</v>
       </c>
       <c r="AC30" t="n">
-        <v>38525.18541191183</v>
+        <v>1953.185558879458</v>
       </c>
       <c r="AD30" t="n">
-        <v>1953.185558879458</v>
+        <v>11341.01201893889</v>
       </c>
       <c r="AE30" t="n">
-        <v>7278.359943532339</v>
+        <v>4445.668437855842</v>
       </c>
       <c r="AF30" t="n">
-        <v>2820.185497897005</v>
+        <v>404.3794498846899</v>
       </c>
       <c r="AG30" t="n">
-        <v>255.6482562677323</v>
+        <v>1213.845416729526</v>
       </c>
       <c r="AH30" t="n">
-        <v>738.8704626817683</v>
+        <v>55.800827304234</v>
       </c>
       <c r="AI30" t="n">
-        <v>38.44048095522185</v>
+        <v>5659.520632619314</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3559.055960578773</v>
+        <v>460.1878018842356</v>
       </c>
       <c r="AK30" t="n">
-        <v>294.0887372229541</v>
+        <v>646.3874118779551</v>
       </c>
       <c r="AL30" t="n">
-        <v>434.4963073629153</v>
+        <v>28.63168603315725</v>
       </c>
       <c r="AM30" t="n">
-        <v>19.03833110784986</v>
+        <v>475.6508872159218</v>
       </c>
       <c r="AN30" t="n">
-        <v>320.0948833281776</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>51.23512045956728</v>
+        <v>80.99773052494197</v>
       </c>
     </row>
     <row r="31">
@@ -4309,85 +4217,82 @@
         <v>162.4816312337823</v>
       </c>
       <c r="O31" t="n">
-        <v>356.8112643293683</v>
+        <v>50662.17287666687</v>
       </c>
       <c r="P31" t="n">
-        <v>33961.73301355936</v>
+        <v>1688.736758390917</v>
       </c>
       <c r="Q31" t="n">
-        <v>1688.736758390917</v>
+        <v>8471.884275130054</v>
       </c>
       <c r="R31" t="n">
-        <v>5469.128323961062</v>
+        <v>3605.446281090804</v>
       </c>
       <c r="S31" t="n">
-        <v>2231.623462488529</v>
+        <v>332.3986068833326</v>
       </c>
       <c r="T31" t="n">
-        <v>214.7959356544581</v>
+        <v>1152.3887168258</v>
       </c>
       <c r="U31" t="n">
-        <v>758.6605384918826</v>
+        <v>61.18377318727566</v>
       </c>
       <c r="V31" t="n">
-        <v>41.28968585609043</v>
+        <v>4757.839406489107</v>
       </c>
       <c r="W31" t="n">
-        <v>2990.284000980411</v>
+        <v>393.5822815766884</v>
       </c>
       <c r="X31" t="n">
-        <v>256.0856215105485</v>
+        <v>546.6126874652475</v>
       </c>
       <c r="Y31" t="n">
-        <v>360.249739320654</v>
+        <v>34.28161601111132</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.52515407585167</v>
+        <v>375.2934958982527</v>
       </c>
       <c r="AA31" t="n">
-        <v>253.4029907558056</v>
+        <v>61.24023405173789</v>
       </c>
       <c r="AB31" t="n">
-        <v>39.28265416742883</v>
+        <v>55588.52723665269</v>
       </c>
       <c r="AC31" t="n">
-        <v>38305.21829076916</v>
+        <v>1852.949647840479</v>
       </c>
       <c r="AD31" t="n">
-        <v>1852.949647840479</v>
+        <v>10652.4520726414</v>
       </c>
       <c r="AE31" t="n">
-        <v>7209.079610985442</v>
+        <v>4110.336555749532</v>
       </c>
       <c r="AF31" t="n">
-        <v>2811.465317541875</v>
+        <v>383.2281676386829</v>
       </c>
       <c r="AG31" t="n">
-        <v>263.1872173810736</v>
+        <v>1009.989013618589</v>
       </c>
       <c r="AH31" t="n">
-        <v>710.8190022774398</v>
+        <v>56.7862843923859</v>
       </c>
       <c r="AI31" t="n">
-        <v>41.22290829078256</v>
+        <v>5120.325530045497</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3522.284319819315</v>
+        <v>440.0094052430971</v>
       </c>
       <c r="AK31" t="n">
-        <v>304.4101256718562</v>
+        <v>628.8179251849525</v>
       </c>
       <c r="AL31" t="n">
-        <v>430.7685679923066</v>
+        <v>30.36033718438055</v>
       </c>
       <c r="AM31" t="n">
-        <v>21.53683354156573</v>
+        <v>445.7436973519031</v>
       </c>
       <c r="AN31" t="n">
-        <v>310.433436287011</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>54.2465739853215</v>
+        <v>80.60677965253794</v>
       </c>
     </row>
     <row r="32">
@@ -4434,85 +4339,82 @@
         <v>151.8045315504081</v>
       </c>
       <c r="O32" t="n">
-        <v>377.9184468948009</v>
+        <v>56639.02939406988</v>
       </c>
       <c r="P32" t="n">
-        <v>34411.62292278442</v>
+        <v>1887.969964245832</v>
       </c>
       <c r="Q32" t="n">
-        <v>1887.969964245832</v>
+        <v>9988.941143367505</v>
       </c>
       <c r="R32" t="n">
-        <v>5773.893944443033</v>
+        <v>4292.910336082487</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.114785764654</v>
+        <v>380.6058889191694</v>
       </c>
       <c r="T32" t="n">
-        <v>217.612509993871</v>
+        <v>1397.308607880452</v>
       </c>
       <c r="U32" t="n">
-        <v>830.8892162749546</v>
+        <v>70.91025840431814</v>
       </c>
       <c r="V32" t="n">
-        <v>42.58538872835702</v>
+        <v>5690.222997007655</v>
       </c>
       <c r="W32" t="n">
-        <v>3196.004002039609</v>
+        <v>451.5162400603203</v>
       </c>
       <c r="X32" t="n">
-        <v>260.197898722228</v>
+        <v>601.1411568544085</v>
       </c>
       <c r="Y32" t="n">
-        <v>357.4355973083727</v>
+        <v>32.10968620500558</v>
       </c>
       <c r="Z32" t="n">
-        <v>18.99498559455132</v>
+        <v>401.9499202551369</v>
       </c>
       <c r="AA32" t="n">
-        <v>244.0445192208021</v>
+        <v>65.46328600232472</v>
       </c>
       <c r="AB32" t="n">
-        <v>37.88511562470147</v>
+        <v>59660.64854624505</v>
       </c>
       <c r="AC32" t="n">
-        <v>36605.80522905414</v>
+        <v>1988.688035447777</v>
       </c>
       <c r="AD32" t="n">
-        <v>1988.688035447777</v>
+        <v>11803.8925151407</v>
       </c>
       <c r="AE32" t="n">
-        <v>6928.011486490792</v>
+        <v>4745.67039798686</v>
       </c>
       <c r="AF32" t="n">
-        <v>2717.210858527469</v>
+        <v>427.3976559036096</v>
       </c>
       <c r="AG32" t="n">
-        <v>250.2037876240233</v>
+        <v>1332.419321843715</v>
       </c>
       <c r="AH32" t="n">
-        <v>762.9451489821988</v>
+        <v>63.6211353865373</v>
       </c>
       <c r="AI32" t="n">
-        <v>39.67555548972454</v>
+        <v>6078.106986114613</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3480.156007509667</v>
+        <v>491.0236843683867</v>
       </c>
       <c r="AK32" t="n">
-        <v>289.8793431137478</v>
+        <v>653.157373138961</v>
       </c>
       <c r="AL32" t="n">
-        <v>406.1497645145627</v>
+        <v>33.49141360435731</v>
       </c>
       <c r="AM32" t="n">
-        <v>20.35279043075854</v>
+        <v>469.7834019173491</v>
       </c>
       <c r="AN32" t="n">
-        <v>294.9104225646443</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>48.45630807652</v>
+        <v>83.0701122972206</v>
       </c>
     </row>
     <row r="33">
@@ -4559,85 +4461,82 @@
         <v>162.4964557163585</v>
       </c>
       <c r="O33" t="n">
-        <v>377.4536352750043</v>
+        <v>56810.47389864959</v>
       </c>
       <c r="P33" t="n">
-        <v>36884.11503026031</v>
+        <v>1893.687048669809</v>
       </c>
       <c r="Q33" t="n">
-        <v>1893.687048669809</v>
+        <v>9674.697430053879</v>
       </c>
       <c r="R33" t="n">
-        <v>5858.865188866452</v>
+        <v>4179.588422852579</v>
       </c>
       <c r="S33" t="n">
-        <v>2380.381746145757</v>
+        <v>381.3975204656863</v>
       </c>
       <c r="T33" t="n">
-        <v>221.4744244387182</v>
+        <v>1417.689253970738</v>
       </c>
       <c r="U33" t="n">
-        <v>796.7269057019661</v>
+        <v>69.77446597861135</v>
       </c>
       <c r="V33" t="n">
-        <v>41.63416962060769</v>
+        <v>5597.278421952666</v>
       </c>
       <c r="W33" t="n">
-        <v>3177.108651847723</v>
+        <v>451.173798054236</v>
       </c>
       <c r="X33" t="n">
-        <v>263.1085940593259</v>
+        <v>600.8308246684295</v>
       </c>
       <c r="Y33" t="n">
-        <v>377.6679645615058</v>
+        <v>34.79892366552329</v>
       </c>
       <c r="Z33" t="n">
-        <v>22.65721103797345</v>
+        <v>410.8941600673616</v>
       </c>
       <c r="AA33" t="n">
-        <v>265.6745988203911</v>
+        <v>64.14952125117138</v>
       </c>
       <c r="AB33" t="n">
-        <v>41.0382215824194</v>
+        <v>59698.97946395713</v>
       </c>
       <c r="AC33" t="n">
-        <v>37719.72379791438</v>
+        <v>1989.965378648734</v>
       </c>
       <c r="AD33" t="n">
-        <v>1989.965378648734</v>
+        <v>11495.37440074113</v>
       </c>
       <c r="AE33" t="n">
-        <v>6934.927602612075</v>
+        <v>4526.444710041395</v>
       </c>
       <c r="AF33" t="n">
-        <v>2672.562020685798</v>
+        <v>414.5569209208675</v>
       </c>
       <c r="AG33" t="n">
-        <v>251.1267811185888</v>
+        <v>1201.138346046504</v>
       </c>
       <c r="AH33" t="n">
-        <v>734.6802294746921</v>
+        <v>63.50595276082507</v>
       </c>
       <c r="AI33" t="n">
-        <v>38.1269068139607</v>
+        <v>5727.583612166213</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3407.242250160489</v>
+        <v>478.0710030250217</v>
       </c>
       <c r="AK33" t="n">
-        <v>289.2536879325496</v>
+        <v>635.6000738652899</v>
       </c>
       <c r="AL33" t="n">
-        <v>410.379793102415</v>
+        <v>29.75860530781235</v>
       </c>
       <c r="AM33" t="n">
-        <v>18.5212481722241</v>
+        <v>456.0305996267591</v>
       </c>
       <c r="AN33" t="n">
-        <v>301.3308124487649</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>52.10582643471833</v>
+        <v>84.11395416818898</v>
       </c>
     </row>
     <row r="34">
@@ -4684,85 +4583,82 @@
         <v>156.3839277170247</v>
       </c>
       <c r="O34" t="n">
-        <v>377.1830687317964</v>
+        <v>54469.71424990849</v>
       </c>
       <c r="P34" t="n">
-        <v>32366.13681423469</v>
+        <v>1815.655021545033</v>
       </c>
       <c r="Q34" t="n">
-        <v>1815.655021545033</v>
+        <v>9289.248137113436</v>
       </c>
       <c r="R34" t="n">
-        <v>5191.973113442682</v>
+        <v>3997.866235765538</v>
       </c>
       <c r="S34" t="n">
-        <v>2139.897166266775</v>
+        <v>355.1690841274728</v>
       </c>
       <c r="T34" t="n">
-        <v>197.361650379744</v>
+        <v>1441.120002724142</v>
       </c>
       <c r="U34" t="n">
-        <v>788.9314771001827</v>
+        <v>70.98475935381904</v>
       </c>
       <c r="V34" t="n">
-        <v>40.20855180294848</v>
+        <v>5438.983145554565</v>
       </c>
       <c r="W34" t="n">
-        <v>2928.828643366958</v>
+        <v>426.1556049388815</v>
       </c>
       <c r="X34" t="n">
-        <v>237.5702021826925</v>
+        <v>576.1610576587274</v>
       </c>
       <c r="Y34" t="n">
-        <v>333.4975109060408</v>
+        <v>37.67151079292522</v>
       </c>
       <c r="Z34" t="n">
-        <v>21.85528863681326</v>
+        <v>384.3465513324751</v>
       </c>
       <c r="AA34" t="n">
-        <v>233.7107497452316</v>
+        <v>65.69711912429094</v>
       </c>
       <c r="AB34" t="n">
-        <v>36.97039666182487</v>
+        <v>58364.79649702458</v>
       </c>
       <c r="AC34" t="n">
-        <v>36674.68289343209</v>
+        <v>1945.494274275145</v>
       </c>
       <c r="AD34" t="n">
-        <v>1945.494274275145</v>
+        <v>11320.32026413577</v>
       </c>
       <c r="AE34" t="n">
-        <v>6951.203194038639</v>
+        <v>4421.902876224024</v>
       </c>
       <c r="AF34" t="n">
-        <v>2686.594136553228</v>
+        <v>406.7934111357263</v>
       </c>
       <c r="AG34" t="n">
-        <v>250.1530931959954</v>
+        <v>1293.467520253323</v>
       </c>
       <c r="AH34" t="n">
-        <v>775.567760016767</v>
+        <v>68.00938099350728</v>
       </c>
       <c r="AI34" t="n">
-        <v>40.79192611059731</v>
+        <v>5715.371155783155</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3462.161896569995</v>
+        <v>474.7959944159998</v>
       </c>
       <c r="AK34" t="n">
-        <v>290.9450193065926</v>
+        <v>643.5452519837319</v>
       </c>
       <c r="AL34" t="n">
-        <v>409.2245315882686</v>
+        <v>34.82259688911498</v>
       </c>
       <c r="AM34" t="n">
-        <v>20.4686749672223</v>
+        <v>462.0814480557474</v>
       </c>
       <c r="AN34" t="n">
-        <v>300.2626132650493</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>49.78195464481229</v>
+        <v>83.36258190027162</v>
       </c>
     </row>
     <row r="35">
@@ -4809,85 +4705,82 @@
         <v>154.8415395848472</v>
       </c>
       <c r="O35" t="n">
-        <v>375.5081502876092</v>
+        <v>52776.31662753457</v>
       </c>
       <c r="P35" t="n">
-        <v>33219.38386594559</v>
+        <v>1759.208592437865</v>
       </c>
       <c r="Q35" t="n">
-        <v>1759.208592437865</v>
+        <v>8858.78580373445</v>
       </c>
       <c r="R35" t="n">
-        <v>5269.980101895182</v>
+        <v>3595.221019431599</v>
       </c>
       <c r="S35" t="n">
-        <v>2122.146522595868</v>
+        <v>336.0150940140078</v>
       </c>
       <c r="T35" t="n">
-        <v>199.7233123759173</v>
+        <v>1260.310203211529</v>
       </c>
       <c r="U35" t="n">
-        <v>736.3709332096809</v>
+        <v>57.7234884104013</v>
       </c>
       <c r="V35" t="n">
-        <v>36.28669699406103</v>
+        <v>4855.523225777685</v>
       </c>
       <c r="W35" t="n">
-        <v>2858.517455805549</v>
+        <v>393.7366040649296</v>
       </c>
       <c r="X35" t="n">
-        <v>236.0100093699783</v>
+        <v>541.8903508028944</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2851411022093</v>
+        <v>35.65725681544772</v>
       </c>
       <c r="Z35" t="n">
-        <v>21.67118703979981</v>
+        <v>359.3043572037572</v>
       </c>
       <c r="AA35" t="n">
-        <v>229.9109441733223</v>
+        <v>60.66159811957557</v>
       </c>
       <c r="AB35" t="n">
-        <v>36.90441577493439</v>
+        <v>57179.82811500611</v>
       </c>
       <c r="AC35" t="n">
-        <v>37908.64664272391</v>
+        <v>1905.995250654764</v>
       </c>
       <c r="AD35" t="n">
-        <v>1905.995250654764</v>
+        <v>10798.24392747016</v>
       </c>
       <c r="AE35" t="n">
-        <v>6929.817233821464</v>
+        <v>4344.35678467951</v>
       </c>
       <c r="AF35" t="n">
-        <v>2712.441322289441</v>
+        <v>387.7376105480931</v>
       </c>
       <c r="AG35" t="n">
-        <v>251.3246877970584</v>
+        <v>1175.272190958472</v>
       </c>
       <c r="AH35" t="n">
-        <v>756.7601355478165</v>
+        <v>59.12019642288296</v>
       </c>
       <c r="AI35" t="n">
-        <v>39.36582654117196</v>
+        <v>5519.628897971253</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3469.201457837257</v>
+        <v>446.8583664700693</v>
       </c>
       <c r="AK35" t="n">
-        <v>290.6905143382303</v>
+        <v>624.882903257148</v>
       </c>
       <c r="AL35" t="n">
-        <v>418.5752700947259</v>
+        <v>28.75404092954576</v>
       </c>
       <c r="AM35" t="n">
-        <v>19.80057119414514</v>
+        <v>447.6445505775384</v>
       </c>
       <c r="AN35" t="n">
-        <v>303.5391754503592</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>52.25556068084855</v>
+        <v>80.81503906469794</v>
       </c>
     </row>
     <row r="36">
@@ -4934,85 +4827,82 @@
         <v>162.3418980996945</v>
       </c>
       <c r="O36" t="n">
-        <v>381.4209882447712</v>
+        <v>54006.28767989655</v>
       </c>
       <c r="P36" t="n">
-        <v>32868.25600476564</v>
+        <v>1800.206327947741</v>
       </c>
       <c r="Q36" t="n">
-        <v>1800.206327947741</v>
+        <v>9161.699103303416</v>
       </c>
       <c r="R36" t="n">
-        <v>5233.40215124484</v>
+        <v>3841.928715135306</v>
       </c>
       <c r="S36" t="n">
-        <v>2091.454187118798</v>
+        <v>351.0002089440713</v>
       </c>
       <c r="T36" t="n">
-        <v>196.0207380768528</v>
+        <v>1318.623498054422</v>
       </c>
       <c r="U36" t="n">
-        <v>714.0369518080465</v>
+        <v>64.74812397638654</v>
       </c>
       <c r="V36" t="n">
-        <v>36.64272968542219</v>
+        <v>5160.550412120444</v>
       </c>
       <c r="W36" t="n">
-        <v>2805.491138926845</v>
+        <v>415.7452066977002</v>
       </c>
       <c r="X36" t="n">
-        <v>232.663467762275</v>
+        <v>568.5902080574509</v>
       </c>
       <c r="Y36" t="n">
-        <v>339.2124604210914</v>
+        <v>36.87576239743037</v>
       </c>
       <c r="Z36" t="n">
-        <v>21.17438320180607</v>
+        <v>384.3886125146172</v>
       </c>
       <c r="AA36" t="n">
-        <v>235.6151466865876</v>
+        <v>67.27199844848285</v>
       </c>
       <c r="AB36" t="n">
-        <v>38.80528788909406</v>
+        <v>59609.88162726934</v>
       </c>
       <c r="AC36" t="n">
-        <v>38670.86576269918</v>
+        <v>1986.996724332183</v>
       </c>
       <c r="AD36" t="n">
-        <v>1986.996724332183</v>
+        <v>11640.91748177846</v>
       </c>
       <c r="AE36" t="n">
-        <v>7247.947784124586</v>
+        <v>4405.491735615481</v>
       </c>
       <c r="AF36" t="n">
-        <v>2769.270052852468</v>
+        <v>417.0173826476441</v>
       </c>
       <c r="AG36" t="n">
-        <v>262.9305470727742</v>
+        <v>1296.952248262902</v>
       </c>
       <c r="AH36" t="n">
-        <v>811.1219490252918</v>
+        <v>60.979682134485</v>
       </c>
       <c r="AI36" t="n">
-        <v>40.53657468838852</v>
+        <v>5702.446540581164</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3580.39200187776</v>
+        <v>477.9969443722059</v>
       </c>
       <c r="AK36" t="n">
-        <v>303.4671217611627</v>
+        <v>670.3806649342338</v>
       </c>
       <c r="AL36" t="n">
-        <v>429.7159971088557</v>
+        <v>37.37294031654831</v>
       </c>
       <c r="AM36" t="n">
-        <v>21.95463833652171</v>
+        <v>486.0934123521283</v>
       </c>
       <c r="AN36" t="n">
-        <v>313.9663961040738</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>53.63461509858666</v>
+        <v>88.0376164301006</v>
       </c>
     </row>
     <row r="37">
@@ -5059,85 +4949,82 @@
         <v>163.9203327598215</v>
       </c>
       <c r="O37" t="n">
-        <v>380.2986267529909</v>
+        <v>57812.25233397936</v>
       </c>
       <c r="P37" t="n">
-        <v>35043.17039599138</v>
+        <v>1927.071926293384</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.071926293384</v>
+        <v>9787.828299243138</v>
       </c>
       <c r="R37" t="n">
-        <v>5509.494412833868</v>
+        <v>4032.047395031223</v>
       </c>
       <c r="S37" t="n">
-        <v>2176.840832876916</v>
+        <v>378.7659664143094</v>
       </c>
       <c r="T37" t="n">
-        <v>207.9082284646607</v>
+        <v>1496.891784903627</v>
       </c>
       <c r="U37" t="n">
-        <v>763.3801916918557</v>
+        <v>70.6212612419241</v>
       </c>
       <c r="V37" t="n">
-        <v>40.42589374198762</v>
+        <v>5528.935395107484</v>
       </c>
       <c r="W37" t="n">
-        <v>2940.221024568772</v>
+        <v>449.3841054039511</v>
       </c>
       <c r="X37" t="n">
-        <v>248.3341222066483</v>
+        <v>614.130885096493</v>
       </c>
       <c r="Y37" t="n">
-        <v>366.8836999736908</v>
+        <v>29.83440993050215</v>
       </c>
       <c r="Z37" t="n">
-        <v>18.70808103750626</v>
+        <v>421.712704975094</v>
       </c>
       <c r="AA37" t="n">
-        <v>260.7649828420859</v>
+        <v>65.66241226796801</v>
       </c>
       <c r="AB37" t="n">
-        <v>37.04047233888983</v>
+        <v>60981.93494671654</v>
       </c>
       <c r="AC37" t="n">
-        <v>39082.81739155237</v>
+        <v>2032.730787354239</v>
       </c>
       <c r="AD37" t="n">
-        <v>2032.730787354239</v>
+        <v>11895.77213045361</v>
       </c>
       <c r="AE37" t="n">
-        <v>7305.237538507678</v>
+        <v>4615.895780772656</v>
       </c>
       <c r="AF37" t="n">
-        <v>2815.390339963722</v>
+        <v>416.7986413082588</v>
       </c>
       <c r="AG37" t="n">
-        <v>259.1969766355783</v>
+        <v>1247.369117212055</v>
       </c>
       <c r="AH37" t="n">
-        <v>739.0363325976346</v>
+        <v>63.6667461543918</v>
       </c>
       <c r="AI37" t="n">
-        <v>40.81213970068247</v>
+        <v>5863.265565427143</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3554.426672561357</v>
+        <v>480.4691929464696</v>
       </c>
       <c r="AK37" t="n">
-        <v>300.0091163362608</v>
+        <v>682.1429908394701</v>
       </c>
       <c r="AL37" t="n">
-        <v>443.5007060883737</v>
+        <v>34.64035174677215</v>
       </c>
       <c r="AM37" t="n">
-        <v>22.0081635637976</v>
+        <v>478.3261555548735</v>
       </c>
       <c r="AN37" t="n">
-        <v>319.3549293529322</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>57.20122727773342</v>
+        <v>92.01376432461622</v>
       </c>
     </row>
     <row r="38">
@@ -5184,85 +5071,82 @@
         <v>160.9875302508502</v>
       </c>
       <c r="O38" t="n">
-        <v>372.1980771170008</v>
+        <v>52936.07745977474</v>
       </c>
       <c r="P38" t="n">
-        <v>34453.29601847654</v>
+        <v>1764.535691330257</v>
       </c>
       <c r="Q38" t="n">
-        <v>1764.535691330257</v>
+        <v>8653.505659566601</v>
       </c>
       <c r="R38" t="n">
-        <v>5350.047947777566</v>
+        <v>3412.400175552095</v>
       </c>
       <c r="S38" t="n">
-        <v>2119.782032489834</v>
+        <v>322.9018618230513</v>
       </c>
       <c r="T38" t="n">
-        <v>202.3426640037674</v>
+        <v>1216.23434833612</v>
       </c>
       <c r="U38" t="n">
-        <v>753.588551147666</v>
+        <v>60.57342974886393</v>
       </c>
       <c r="V38" t="n">
-        <v>38.85496562853327</v>
+        <v>4628.635783142786</v>
       </c>
       <c r="W38" t="n">
-        <v>2873.3705836375</v>
+        <v>383.4824459175796</v>
       </c>
       <c r="X38" t="n">
-        <v>241.1976296323006</v>
+        <v>570.1842145536957</v>
       </c>
       <c r="Y38" t="n">
-        <v>362.0595262245965</v>
+        <v>32.75533544630866</v>
       </c>
       <c r="Z38" t="n">
-        <v>21.48545474282198</v>
+        <v>376.02710162932</v>
       </c>
       <c r="AA38" t="n">
-        <v>250.9535454438335</v>
+        <v>64.22127952036655</v>
       </c>
       <c r="AB38" t="n">
-        <v>39.7616540737664</v>
+        <v>55937.28540441274</v>
       </c>
       <c r="AC38" t="n">
-        <v>37111.00591423909</v>
+        <v>1864.57707640704</v>
       </c>
       <c r="AD38" t="n">
-        <v>1864.57707640704</v>
+        <v>10252.71721126108</v>
       </c>
       <c r="AE38" t="n">
-        <v>6683.122887863841</v>
+        <v>3937.386479089931</v>
       </c>
       <c r="AF38" t="n">
-        <v>2569.451957859065</v>
+        <v>368.0242913139382</v>
       </c>
       <c r="AG38" t="n">
-        <v>241.5531074554565</v>
+        <v>1053.031932224214</v>
       </c>
       <c r="AH38" t="n">
-        <v>683.3118908803582</v>
+        <v>59.9444691124807</v>
       </c>
       <c r="AI38" t="n">
-        <v>39.25261214103449</v>
+        <v>4990.418432233248</v>
       </c>
       <c r="AJ38" t="n">
-        <v>3252.763848739423</v>
+        <v>427.9682202717714</v>
       </c>
       <c r="AK38" t="n">
-        <v>280.805719596491</v>
+        <v>612.6742053109344</v>
       </c>
       <c r="AL38" t="n">
-        <v>416.9745823883916</v>
+        <v>32.43778827220086</v>
       </c>
       <c r="AM38" t="n">
-        <v>21.09226582558871</v>
+        <v>444.8818288044463</v>
       </c>
       <c r="AN38" t="n">
-        <v>302.7508660320772</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>52.99490285053395</v>
+        <v>80.49144403728558</v>
       </c>
     </row>
     <row r="39">
@@ -5309,85 +5193,82 @@
         <v>159.2011571997215</v>
       </c>
       <c r="O39" t="n">
-        <v>385.8353612511093</v>
+        <v>55668.7839787912</v>
       </c>
       <c r="P39" t="n">
-        <v>35534.6803950811</v>
+        <v>1855.627629440688</v>
       </c>
       <c r="Q39" t="n">
-        <v>1855.627629440688</v>
+        <v>9445.69008612885</v>
       </c>
       <c r="R39" t="n">
-        <v>5641.695497846668</v>
+        <v>4067.493004124219</v>
       </c>
       <c r="S39" t="n">
-        <v>2297.505151713662</v>
+        <v>371.155246981004</v>
       </c>
       <c r="T39" t="n">
-        <v>214.036968079725</v>
+        <v>1512.876289461583</v>
       </c>
       <c r="U39" t="n">
-        <v>830.461646728243</v>
+        <v>75.17992753446143</v>
       </c>
       <c r="V39" t="n">
-        <v>43.08770237227718</v>
+        <v>5580.36520734935</v>
       </c>
       <c r="W39" t="n">
-        <v>3127.966798441905</v>
+        <v>446.3392574977509</v>
       </c>
       <c r="X39" t="n">
-        <v>257.1246704520021</v>
+        <v>604.6363399261154</v>
       </c>
       <c r="Y39" t="n">
-        <v>375.8645052005114</v>
+        <v>34.3980416902455</v>
       </c>
       <c r="Z39" t="n">
-        <v>22.08574032037741</v>
+        <v>411.5677846484007</v>
       </c>
       <c r="AA39" t="n">
-        <v>263.7724039568056</v>
+        <v>66.50522997363005</v>
       </c>
       <c r="AB39" t="n">
-        <v>39.49045626655135</v>
+        <v>60429.58495247865</v>
       </c>
       <c r="AC39" t="n">
-        <v>38315.50076268402</v>
+        <v>2014.322373051601</v>
       </c>
       <c r="AD39" t="n">
-        <v>2014.322373051601</v>
+        <v>11469.82123915212</v>
       </c>
       <c r="AE39" t="n">
-        <v>6984.082257767407</v>
+        <v>4575.951179403106</v>
       </c>
       <c r="AF39" t="n">
-        <v>2747.043146037496</v>
+        <v>421.9176958646339</v>
       </c>
       <c r="AG39" t="n">
-        <v>255.3410250171215</v>
+        <v>1305.781211523796</v>
       </c>
       <c r="AH39" t="n">
-        <v>782.807051979602</v>
+        <v>62.36527083589628</v>
       </c>
       <c r="AI39" t="n">
-        <v>39.17552483935994</v>
+        <v>5881.741811980692</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3529.850198017098</v>
+        <v>484.2910929115196</v>
       </c>
       <c r="AK39" t="n">
-        <v>294.5165498564814</v>
+        <v>675.4686079745132</v>
       </c>
       <c r="AL39" t="n">
-        <v>435.256612280297</v>
+        <v>31.96665207267613</v>
       </c>
       <c r="AM39" t="n">
-        <v>20.86454179859003</v>
+        <v>474.5445412705133</v>
       </c>
       <c r="AN39" t="n">
-        <v>312.7789012578645</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>53.56176396807747</v>
+        <v>87.19944201158114</v>
       </c>
     </row>
   </sheetData>
